--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2348E14D-989E-4992-BD43-D5AA661AD1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E509E99-8378-4173-8E04-B71D22B7060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="248">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1954,6 +1954,13 @@
 1:需審查/確認
 2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2218,7 +2225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2387,9 +2394,33 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2399,28 +2430,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2762,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3099,28 +3109,28 @@
         <v>11</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>76</v>
+        <v>246</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>247</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="49">
-        <v>8</v>
-      </c>
-      <c r="G20" s="50"/>
+      <c r="E20" s="16">
+        <v>6</v>
+      </c>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="46">
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>55</v>
@@ -3130,35 +3140,33 @@
       </c>
       <c r="G21" s="50"/>
     </row>
-    <row r="22" spans="1:7" ht="97.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="46">
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="46">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32.4">
+        <v>28</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="49">
+        <v>8</v>
+      </c>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="1:7" ht="97.2">
       <c r="A23" s="46">
         <v>14</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>83</v>
+      <c r="B23" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>19</v>
@@ -3166,48 +3174,48 @@
       <c r="E23" s="46">
         <v>1</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="324">
+      <c r="G23" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4">
       <c r="A24" s="46">
         <v>15</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="46">
-        <v>2</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="324">
       <c r="A25" s="46">
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>39</v>
+        <v>102</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3215,19 +3223,19 @@
         <v>17</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="49">
-        <v>8</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="E26" s="46">
+        <v>6</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3235,10 +3243,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>55</v>
@@ -3246,17 +3254,19 @@
       <c r="E27" s="49">
         <v>8</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="46">
         <v>19</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>55</v>
@@ -3266,170 +3276,172 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" ht="226.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="46">
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="46">
-        <v>2</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>229</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="49">
+        <v>8</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="226.8">
       <c r="A30" s="46">
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" s="46">
-        <v>100</v>
-      </c>
-      <c r="G30" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="46">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="46">
-        <v>10</v>
-      </c>
-      <c r="G31" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="46">
         <v>23</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="49">
-        <v>8</v>
-      </c>
-      <c r="G32" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="46">
+        <v>10</v>
+      </c>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="46">
         <v>24</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="46">
-        <v>1</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="64.8">
+        <v>60</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="49">
+        <v>8</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="46">
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E34" s="46">
         <v>1</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="64.8">
       <c r="A35" s="46">
         <v>26</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E35" s="46">
-        <v>5</v>
-      </c>
-      <c r="G35" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="46">
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="46">
-        <v>6</v>
-      </c>
-      <c r="G36" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="46">
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="46">
+        <v>6</v>
+      </c>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7">
@@ -3437,17 +3449,15 @@
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="46">
-        <v>6</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="49"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
@@ -3455,16 +3465,34 @@
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="46">
+        <v>6</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16">
+        <v>31</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C40" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D40" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="G39" s="20"/>
+      <c r="E40" s="49"/>
+      <c r="G40" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3698,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3715,32 +3743,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3767,10 +3795,10 @@
       <c r="D4" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="29" t="s">
         <v>132</v>
       </c>
@@ -3797,10 +3825,10 @@
       <c r="D5" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3827,10 +3855,10 @@
       <c r="D6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -3857,10 +3885,10 @@
       <c r="D7" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="34" t="s">
         <v>148</v>
       </c>
@@ -3887,10 +3915,10 @@
       <c r="D8" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="32" t="s">
         <v>153</v>
       </c>
@@ -3917,10 +3945,10 @@
       <c r="D9" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="35" t="s">
         <v>158</v>
       </c>
@@ -3947,10 +3975,10 @@
       <c r="D10" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="36" t="s">
         <v>164</v>
       </c>
@@ -4009,10 +4037,10 @@
       <c r="D12" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="32" t="s">
         <v>172</v>
       </c>
@@ -4027,52 +4055,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="60">
+      <c r="A13" s="64">
         <v>9</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="62" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="60" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="60"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="56" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="J14" s="63"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4087,10 +4115,10 @@
       <c r="D15" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="32" t="s">
         <v>183</v>
       </c>
@@ -4117,10 +4145,10 @@
       <c r="D16" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="32" t="s">
         <v>188</v>
       </c>
@@ -4147,10 +4175,10 @@
       <c r="D17" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="32" t="s">
         <v>193</v>
       </c>
@@ -4177,10 +4205,10 @@
       <c r="D18" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="32" t="s">
         <v>193</v>
       </c>
@@ -4207,10 +4235,10 @@
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="32" t="s">
         <v>193</v>
       </c>
@@ -4287,10 +4315,10 @@
       <c r="D24" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="64"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="29" t="s">
         <v>132</v>
       </c>
@@ -4317,10 +4345,10 @@
       <c r="D25" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4347,10 +4375,10 @@
       <c r="D26" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4377,10 +4405,10 @@
       <c r="D27" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="41" t="s">
         <v>193</v>
       </c>
@@ -4407,10 +4435,10 @@
       <c r="D28" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="32" t="s">
         <v>153</v>
       </c>
@@ -4437,10 +4465,10 @@
       <c r="D29" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="43" t="s">
         <v>158</v>
       </c>
@@ -4455,48 +4483,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="65">
+      <c r="A30" s="59">
         <v>6</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="59">
         <v>20</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="66" t="s">
+      <c r="F30" s="58"/>
+      <c r="G30" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H30" s="66" t="s">
+      <c r="H30" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="56" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="65"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="61" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4511,10 +4539,10 @@
       <c r="D32" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="41" t="s">
         <v>213</v>
       </c>
@@ -4529,50 +4557,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="65">
+      <c r="A33" s="59">
         <v>8</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="59" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="J33" s="66" t="s">
+      <c r="J33" s="56" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="65"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4587,10 +4615,10 @@
       <c r="D35" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4617,10 +4645,10 @@
       <c r="D36" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4647,8 +4675,8 @@
       <c r="D37" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="41" t="s">
         <v>193</v>
       </c>
@@ -4664,33 +4692,21 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4703,21 +4719,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E509E99-8378-4173-8E04-B71D22B7060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F372A4A2-A4C4-4E18-91FD-99B1FD41C166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2382,6 +2382,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2394,43 +2397,40 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2775,7 +2775,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2790,10 +2790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="3" t="s">
         <v>230</v>
       </c>
@@ -2805,8 +2805,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="8" t="s">
         <v>111</v>
       </c>
@@ -2818,10 +2818,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
@@ -2833,10 +2833,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -2844,10 +2844,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
@@ -2857,10 +2857,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="44" t="s">
         <v>93</v>
       </c>
@@ -2870,10 +2870,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
@@ -2883,10 +2883,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
@@ -3114,13 +3114,13 @@
       <c r="C20" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>55</v>
+      <c r="D20" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="E20" s="16">
         <v>6</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="46">
@@ -3743,32 +3743,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3795,10 +3795,10 @@
       <c r="D4" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="29" t="s">
         <v>132</v>
       </c>
@@ -3825,10 +3825,10 @@
       <c r="D5" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3855,10 +3855,10 @@
       <c r="D6" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -3885,10 +3885,10 @@
       <c r="D7" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="34" t="s">
         <v>148</v>
       </c>
@@ -3915,10 +3915,10 @@
       <c r="D8" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="32" t="s">
         <v>153</v>
       </c>
@@ -3945,10 +3945,10 @@
       <c r="D9" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="35" t="s">
         <v>158</v>
       </c>
@@ -3975,10 +3975,10 @@
       <c r="D10" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="36" t="s">
         <v>164</v>
       </c>
@@ -4037,10 +4037,10 @@
       <c r="D12" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="32" t="s">
         <v>172</v>
       </c>
@@ -4055,52 +4055,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="64">
+      <c r="A13" s="61">
         <v>9</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="60" t="s">
+      <c r="F13" s="57"/>
+      <c r="G13" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="I13" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="J13" s="60" t="s">
+      <c r="J13" s="63" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="64"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="62" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61" t="s">
+      <c r="F14" s="57"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="J14" s="61"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4115,10 +4115,10 @@
       <c r="D15" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="32" t="s">
         <v>183</v>
       </c>
@@ -4145,10 +4145,10 @@
       <c r="D16" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="32" t="s">
         <v>188</v>
       </c>
@@ -4175,10 +4175,10 @@
       <c r="D17" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="32" t="s">
         <v>193</v>
       </c>
@@ -4205,10 +4205,10 @@
       <c r="D18" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="32" t="s">
         <v>193</v>
       </c>
@@ -4235,10 +4235,10 @@
       <c r="D19" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="32" t="s">
         <v>193</v>
       </c>
@@ -4315,10 +4315,10 @@
       <c r="D24" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="29" t="s">
         <v>132</v>
       </c>
@@ -4345,10 +4345,10 @@
       <c r="D25" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4375,10 +4375,10 @@
       <c r="D26" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4405,10 +4405,10 @@
       <c r="D27" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="41" t="s">
         <v>193</v>
       </c>
@@ -4435,10 +4435,10 @@
       <c r="D28" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="32" t="s">
         <v>153</v>
       </c>
@@ -4465,10 +4465,10 @@
       <c r="D29" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="43" t="s">
         <v>158</v>
       </c>
@@ -4483,48 +4483,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="59">
+      <c r="A30" s="66">
         <v>6</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="66">
         <v>20</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="56" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="J30" s="67" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="59"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="58" t="s">
+      <c r="A31" s="66"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4539,10 +4539,10 @@
       <c r="D32" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="41" t="s">
         <v>213</v>
       </c>
@@ -4557,50 +4557,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="59">
+      <c r="A33" s="66">
         <v>8</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="66" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="56" t="s">
+      <c r="H33" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="J33" s="56" t="s">
+      <c r="J33" s="67" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="59"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4615,10 +4615,10 @@
       <c r="D35" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4645,10 +4645,10 @@
       <c r="D36" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="58"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4675,8 +4675,8 @@
       <c r="D37" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="41" t="s">
         <v>193</v>
       </c>
@@ -4692,21 +4692,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4719,33 +4731,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F372A4A2-A4C4-4E18-91FD-99B1FD41C166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911604A4-1611-4EDC-A4F0-5296AD51D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>儲金帳號</t>
-  </si>
-  <si>
-    <t>授權方式</t>
   </si>
   <si>
     <t>統一編號</t>
@@ -1962,6 +1959,25 @@
     <t>處理時間</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>授權類別</t>
+  </si>
+  <si>
+    <t>AuthMeth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權方式</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AchAuthCode
+A:紙本新增
+O:舊檔轉換
+X:紙本終止
+R:申請恢復</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1970,7 +1986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2103,6 +2119,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2225,7 +2248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2397,9 +2420,33 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2409,29 +2456,23 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2772,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2795,10 +2836,10 @@
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2808,7 +2849,7 @@
       <c r="A2" s="54"/>
       <c r="B2" s="55"/>
       <c r="C2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2941,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>54</v>
@@ -2953,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2991,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3019,8 +3060,8 @@
       <c r="B15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>108</v>
+      <c r="C15" s="69" t="s">
+        <v>247</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>19</v>
@@ -3029,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3058,7 +3099,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>19</v>
@@ -3109,10 +3150,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="D20" s="44" t="s">
         <v>67</v>
@@ -3166,7 +3207,7 @@
         <v>94</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>19</v>
@@ -3175,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.4">
@@ -3186,7 +3227,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3195,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="324">
@@ -3203,7 +3244,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>102</v>
@@ -3215,27 +3256,28 @@
         <v>2</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="81">
       <c r="A26" s="46">
         <v>17</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="46">
-        <v>6</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>101</v>
+      <c r="B26" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="72">
+        <v>1</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3243,19 +3285,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="49">
-        <v>8</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="E27" s="46">
+        <v>6</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3263,10 +3305,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>55</v>
@@ -3274,17 +3316,19 @@
       <c r="E28" s="49">
         <v>8</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="46">
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>55</v>
@@ -3294,170 +3338,172 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" ht="226.8">
+    <row r="30" spans="1:7">
       <c r="A30" s="46">
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="46">
-        <v>2</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="49">
+        <v>8</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="226.8">
       <c r="A31" s="46">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="46">
-        <v>100</v>
-      </c>
-      <c r="G31" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="46">
         <v>23</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="46">
-        <v>10</v>
-      </c>
-      <c r="G32" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="46">
         <v>24</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="49">
-        <v>8</v>
-      </c>
-      <c r="G33" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="46">
+        <v>10</v>
+      </c>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="46">
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="46">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="64.8">
+        <v>60</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="49">
+        <v>8</v>
+      </c>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="46">
         <v>26</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E35" s="46">
         <v>1</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="64.8">
       <c r="A36" s="46">
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E36" s="46">
-        <v>5</v>
-      </c>
-      <c r="G36" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="46">
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="46">
-        <v>6</v>
-      </c>
-      <c r="G37" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="46">
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="46">
+        <v>6</v>
+      </c>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
@@ -3465,17 +3511,15 @@
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="46">
-        <v>6</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="49"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
@@ -3483,16 +3527,37 @@
         <v>31</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="46">
+        <v>6</v>
+      </c>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="16">
+        <v>32</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="C41" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="G40" s="20"/>
+      <c r="E41" s="49"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3557,10 +3622,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3579,7 +3644,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3590,7 +3655,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3673,10 +3738,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>56</v>
@@ -3684,35 +3749,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3743,32 +3808,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3784,32 +3849,32 @@
     </row>
     <row r="4" spans="1:10" ht="48.6">
       <c r="A4" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3817,18 +3882,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3847,29 +3912,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32">
         <v>846</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3877,29 +3942,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="34" t="s">
-        <v>148</v>
-      </c>
       <c r="H7" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.8">
@@ -3907,29 +3972,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="32" t="s">
-        <v>153</v>
-      </c>
       <c r="H8" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3937,29 +4002,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="35" t="s">
+      <c r="H9" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>158</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3967,29 +4032,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="F10" s="63"/>
+      <c r="G10" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>164</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="97.2">
@@ -3997,25 +4062,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="30">
         <v>26</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="G11" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>169</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" s="32">
         <v>1</v>
@@ -4029,107 +4094,107 @@
         <v>8</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="30">
         <v>27</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="32" t="s">
+      <c r="H12" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="65">
+        <v>9</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="61">
-        <v>9</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="61" t="s">
+      <c r="D13" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="E13" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="F13" s="63"/>
+      <c r="G13" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="63" t="s">
+      <c r="H13" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="65"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="61"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="57" t="s">
+      <c r="F14" s="63"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
         <v>10</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="F15" s="63"/>
+      <c r="G15" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="32" t="s">
-        <v>183</v>
-      </c>
       <c r="H15" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4">
@@ -4137,29 +4202,29 @@
         <v>11</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="F16" s="63"/>
+      <c r="G16" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="32" t="s">
-        <v>188</v>
-      </c>
       <c r="H16" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4167,29 +4232,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="32" t="s">
-        <v>193</v>
-      </c>
       <c r="H17" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4197,29 +4262,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="30">
         <v>74</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="32" t="s">
-        <v>193</v>
-      </c>
       <c r="H18" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4227,29 +4292,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="57"/>
+      <c r="E19" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="63"/>
       <c r="G19" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4290,7 +4355,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -4304,32 +4369,32 @@
     </row>
     <row r="24" spans="1:10" ht="48.6">
       <c r="A24" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="F24" s="64"/>
+      <c r="G24" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="29" t="s">
+      <c r="H24" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="I24" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="J24" s="29" t="s">
         <v>134</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4337,18 +4402,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="39">
         <v>1</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="62"/>
+        <v>136</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="59"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4367,29 +4432,29 @@
         <v>2</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="42">
         <v>43135</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="62"/>
+        <v>140</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="59"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I26" s="41">
         <v>846</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4397,29 +4462,29 @@
         <v>3</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="42">
         <v>43228</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="62"/>
+        <v>145</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="59"/>
       <c r="G27" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.8">
@@ -4427,29 +4492,29 @@
         <v>4</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="42">
         <v>43359</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="62"/>
+        <v>150</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="59"/>
       <c r="G28" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4457,168 +4522,168 @@
         <v>5</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="60">
+        <v>6</v>
+      </c>
+      <c r="B30" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="66">
-        <v>6</v>
-      </c>
-      <c r="B30" s="62" t="s">
+      <c r="C30" s="60">
+        <v>20</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="66">
-        <v>20</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="62" t="s">
+      <c r="F30" s="59"/>
+      <c r="G30" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="67" t="s">
+      <c r="H30" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="60"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="H30" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>208</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="66"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
         <v>7</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="D32" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="62" t="s">
+      <c r="F32" s="59"/>
+      <c r="G32" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="41" t="s">
+      <c r="H32" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="60">
+        <v>8</v>
+      </c>
+      <c r="B33" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="66">
-        <v>8</v>
-      </c>
-      <c r="B33" s="62" t="s">
+      <c r="C33" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="D33" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="40" t="s">
+      <c r="F33" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="G33" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" s="57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="60"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="66"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
         <v>9</v>
       </c>
       <c r="B35" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="D35" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4637,18 +4702,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>223</v>
-      </c>
       <c r="D36" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="F36" s="62"/>
+        <v>161</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="F36" s="59"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4667,58 +4732,46 @@
         <v>11</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C37" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4731,21 +4784,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911604A4-1611-4EDC-A4F0-5296AD51D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD1F13-52D6-4BF4-A14F-9F34D0D9E3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,49 +22,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>欄位名稱</t>
@@ -86,26 +86,26 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RelAcctName</t>
@@ -118,314 +118,314 @@
   </si>
   <si>
     <t>帳戶別</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>帳號碼</t>
   </si>
   <si>
     <t>核印取消日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修改者櫃員編號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CustId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ProcessDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>StampCancelDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RetrDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RelationCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提出日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提回日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>與借款人關係</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>AuthCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcctSeq</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcct</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>custNoEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>repayAcctEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcct =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>authCreateDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AuthCreateDate &gt;= ,AND AuthCreateDate &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>propDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PropDate &gt;= ,AND PropDate &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>retrDateEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RetrDate &gt;= ,AND RetrDate &lt;=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AuthCreateDate,AuthApplCode,CustNo,PostDepCode,RepayAcct,AuthCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>申請代號，狀態碼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
   </si>
   <si>
     <t>RepayAcctSeq DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>acctSeqFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第三人帳戶戶名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>第三人出生日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>第三人性別</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Index4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AuthCreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PropDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RetrDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustId = ,AND PostDepCode = ,AND CustNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
   </si>
   <si>
     <t>AuthCreateDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>建立者櫃員編號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>額度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pkFacmNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">AuthApplCode = ,AND CustNo = ,AND PostDepCode = ,AND RepayAcct = ,AND AuthCode = ,AND FacmNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
   </si>
   <si>
     <t>AML回應碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>核印完成日期</t>
   </si>
   <si>
     <t>AmlRsp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>StampFinishDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>mediaCodeEq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>l4041ARg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>l4041BRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>l4041CRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PostMediaCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PostDepCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PostMediaCode = ,AND PropDate &gt;= ,AND PropDate &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mediaCodeIsnull</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PostMediaCode ! ,AND PropDate &gt;= ,AND PropDate &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PostMediaCode ! ,AND AuthErrorCode ^i ,AND CustNo = ,AND PropDate = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PostMediaCode ! ,AND AuthErrorCode ^i ,AND PropDate = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PostMediaCode ! ,AND AuthErrorCode ^i ,AND CustNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>l4041DRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PostMediaCode ! ,AND AuthErrorCode ^i </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PostMediaCode,AuthErrorCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>StampCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>fileSeqFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PropDate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>媒體檔流水編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FileSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>媒體產出日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>處理日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>媒體產出前為0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狀況代號，授權狀態</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PropDate = , AND AuthCode = , AND FileSeq = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期</t>
@@ -444,66 +444,66 @@
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>repayAcctLike</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcct %</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RelationId</t>
   </si>
   <si>
     <t>第三人身分證字號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>facmNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND PostDepCode = ,AND RepayAcct = ,AND AuthCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>repayAcctFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>核印註記</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>媒體碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>facmNoBFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AuthCreateDate DESC,CreateDate DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthCreateDate DESC,CreateDate DESC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>檔案說明：依儲金帳號排序</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -538,7 +538,7 @@
       </rPr>
       <t>郵局扣款授權紀錄檔</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
@@ -640,7 +640,7 @@
       </rPr>
       <t>=01</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -730,7 +730,7 @@
       </rPr>
       <t>=02</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -820,7 +820,7 @@
       </rPr>
       <t>=01</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -910,7 +910,7 @@
       </rPr>
       <t>=02</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>資料別</t>
@@ -933,11 +933,11 @@
   </si>
   <si>
     <t>委託機構代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2-4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>X(3)</t>
@@ -947,14 +947,14 @@
   </si>
   <si>
     <t>53N</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>保留欄</t>
   </si>
   <si>
     <t>5-8</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>X(4)</t>
@@ -964,15 +964,15 @@
   </si>
   <si>
     <t>空白</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>媒體產生日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>9-16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>X(8)</t>
@@ -1009,7 +1009,7 @@
       </rPr>
       <t>CUSCDT</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>批號</t>
@@ -1035,15 +1035,15 @@
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>流水號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>20-25</t>
@@ -1072,14 +1072,14 @@
       </rPr>
       <t>序編</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>POANUM</t>
   </si>
   <si>
     <t>000001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1138,7 +1138,7 @@
       </rPr>
       <t>：終止</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1203,7 +1203,7 @@
       </rPr>
       <t>已回復為申請</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1244,7 +1244,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>帳戶別</t>
@@ -1273,7 +1273,7 @@
   </si>
   <si>
     <t>POSCDE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>28-41</t>
@@ -1305,7 +1305,7 @@
   </si>
   <si>
     <t>LMSPCN</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1334,7 +1334,7 @@
   </si>
   <si>
     <t>用戶編號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>42-61</t>
@@ -1345,7 +1345,7 @@
   <si>
     <t>右靠左補空，大寫英數字，不得填寫中文
 由委託機構自行編給其客戶之編號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1400,7 +1400,7 @@
       </rPr>
       <t>CUSID1+POSCDE+LMSACN</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>身分證統一編號或統一證號</t>
@@ -1433,11 +1433,11 @@
       </rPr>
       <t>CUSID1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>狀況代號</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>72-73</t>
@@ -1447,7 +1447,7 @@
   </si>
   <si>
     <t>初始值為空白，回送資料請參閱媒體資料不符代號一覽表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1459,7 +1459,7 @@
       </rPr>
       <t>空白</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>核對註記</t>
@@ -1472,7 +1472,7 @@
   </si>
   <si>
     <t>尾錄</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1624,7 +1624,7 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1703,7 +1703,7 @@
       </rPr>
       <t>加總檔案資料筆數</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1825,46 +1825,46 @@
   </si>
   <si>
     <t>DeleteDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AuthApplCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>郵局授權記錄檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暫停授權日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PostAuthLog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>custNoAuthErrorCodeEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND AuthApplCode ^i ,AND AuthErrorCode ^i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AuthErrorCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcct DESC,AuthCreateDate DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxCd</t>
   </si>
   <si>
     <t>交易代號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.AuthApplCode
@@ -1873,19 +1873,19 @@
 3:郵局終止
 4:誤終止
 9:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.PostDepCode
 P:存簿
 G:劃撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.AuthCode
 1:期款
 2:火險</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.StampCode
@@ -1894,12 +1894,12 @@
 3:身分證號不符
 4:印鑑不符
 9:其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>空白:未產出前
 Y:產出後</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.AuthErrorCode
@@ -1922,7 +1922,7 @@
 19:編號非英數
 91:期限未扣款
 98:其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.RelationCode
@@ -1939,36 +1939,36 @@
 10:妹
 11:姪子
 99:其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.Sex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.AmlCheckItem
 0:非可疑名單/已完成名單確認
 1:需審查/確認
 2:為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ProcessTime</t>
   </si>
   <si>
     <t>處理時間</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>授權類別</t>
   </si>
   <si>
     <t>AuthMeth</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>授權方式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.AchAuthCode
@@ -1976,7 +1976,13 @@
 O:舊檔轉換
 X:紙本終止
 R:申請恢復</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitAmt</t>
+  </si>
+  <si>
+    <t>每筆扣款限額</t>
   </si>
 </sst>
 </file>
@@ -1986,12 +1992,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -2240,244 +2254,263 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{030BEEDE-4EFE-4A4E-9170-44047ED2BC58}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2813,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2831,10 +2864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="3" t="s">
         <v>229</v>
       </c>
@@ -2846,8 +2879,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="8" t="s">
         <v>110</v>
       </c>
@@ -2859,10 +2892,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
@@ -2874,10 +2907,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -2885,10 +2918,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
@@ -2898,10 +2931,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="44" t="s">
         <v>93</v>
       </c>
@@ -2911,10 +2944,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
@@ -2924,10 +2957,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
@@ -3060,7 +3093,7 @@
       <c r="B15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="53" t="s">
         <v>247</v>
       </c>
       <c r="D15" s="44" t="s">
@@ -3110,86 +3143,89 @@
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="46">
+      <c r="A18" s="76">
         <v>9</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="76">
+        <v>8</v>
+      </c>
+      <c r="F18" s="75">
+        <v>2</v>
+      </c>
+      <c r="G18" s="50"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="76">
+        <v>10</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C19" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E19" s="49">
         <v>2</v>
       </c>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="46">
-        <v>10</v>
-      </c>
-      <c r="B19" s="45" t="s">
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="76">
+        <v>11</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C20" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D20" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E20" s="49">
         <v>8</v>
       </c>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="46">
-        <v>11</v>
-      </c>
-      <c r="B20" s="45" t="s">
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="76">
+        <v>12</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D21" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="16">
         <v>6</v>
       </c>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="46">
-        <v>12</v>
-      </c>
-      <c r="B21" s="45" t="s">
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="76">
+        <v>13</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C22" s="45" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="49">
-        <v>8</v>
-      </c>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="46">
-        <v>13</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>28</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>55</v>
@@ -3199,35 +3235,33 @@
       </c>
       <c r="G22" s="50"/>
     </row>
-    <row r="23" spans="1:7" ht="97.2">
-      <c r="A23" s="46">
+    <row r="23" spans="1:7">
+      <c r="A23" s="76">
         <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="49">
+        <v>8</v>
+      </c>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="1:7" ht="97.2">
+      <c r="A24" s="76">
+        <v>15</v>
+      </c>
+      <c r="B24" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C24" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="46">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.4">
-      <c r="A24" s="46">
-        <v>15</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>120</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3235,100 +3269,100 @@
       <c r="E24" s="46">
         <v>1</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="324">
-      <c r="A25" s="46">
+      <c r="G24" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4">
+      <c r="A25" s="76">
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="46">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="324">
+      <c r="A26" s="76">
+        <v>17</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="46">
         <v>2</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G26" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="81">
-      <c r="A26" s="46">
-        <v>17</v>
-      </c>
-      <c r="B26" s="70" t="s">
+    <row r="27" spans="1:7" ht="81">
+      <c r="A27" s="76">
+        <v>18</v>
+      </c>
+      <c r="B27" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C27" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D27" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E27" s="56">
         <v>1</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74" t="s">
+      <c r="F27" s="57"/>
+      <c r="G27" s="58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="46">
-        <v>18</v>
-      </c>
-      <c r="B27" s="44" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="76">
+        <v>19</v>
+      </c>
+      <c r="B28" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C28" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D28" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E28" s="46">
         <v>6</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G28" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="46">
-        <v>19</v>
-      </c>
-      <c r="B28" s="44" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="76">
+        <v>20</v>
+      </c>
+      <c r="B29" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C29" s="45" t="s">
         <v>36</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="49">
-        <v>8</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="46">
-        <v>20</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>37</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>55</v>
@@ -3336,17 +3370,19 @@
       <c r="E29" s="49">
         <v>8</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="46">
+      <c r="A30" s="76">
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>55</v>
@@ -3356,208 +3392,226 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" ht="226.8">
-      <c r="A31" s="46">
+    <row r="31" spans="1:7">
+      <c r="A31" s="76">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="49">
+        <v>8</v>
+      </c>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="226.8">
+      <c r="A32" s="76">
+        <v>23</v>
+      </c>
+      <c r="B32" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C32" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D32" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E32" s="46">
         <v>2</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G32" s="23" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="46">
+    <row r="33" spans="1:7">
+      <c r="A33" s="76">
+        <v>24</v>
+      </c>
+      <c r="B33" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="45" t="s">
+      <c r="C33" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D33" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E33" s="46">
         <v>100</v>
       </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="46">
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="76">
+        <v>25</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="46">
+        <v>10</v>
+      </c>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="76">
+        <v>26</v>
+      </c>
+      <c r="B35" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="44" t="s">
+      <c r="C35" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="49">
+        <v>8</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="76">
+        <v>27</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>19</v>
-      </c>
-      <c r="E33" s="46">
-        <v>10</v>
-      </c>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="46">
-        <v>25</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="49">
-        <v>8</v>
-      </c>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="46">
-        <v>26</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="46">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="64.8">
-      <c r="A36" s="46">
-        <v>27</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>74</v>
       </c>
       <c r="E36" s="46">
         <v>1</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8">
+      <c r="A37" s="76">
+        <v>28</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="46">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="46">
-        <v>28</v>
-      </c>
-      <c r="B37" s="44" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="76">
+        <v>29</v>
+      </c>
+      <c r="B38" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C38" s="45" t="s">
         <v>235</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="46">
-        <v>5</v>
-      </c>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="46">
-        <v>29</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>70</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="46">
+        <v>5</v>
+      </c>
+      <c r="G38" s="47"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="76">
+        <v>30</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="46">
         <v>6</v>
       </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="46">
-        <v>30</v>
-      </c>
-      <c r="B39" s="44" t="s">
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="76">
+        <v>31</v>
+      </c>
+      <c r="B40" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C40" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D40" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="16">
-        <v>31</v>
-      </c>
-      <c r="B40" s="44" t="s">
+      <c r="E40" s="49"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="76">
+        <v>32</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C41" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D41" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E41" s="46">
         <v>6</v>
       </c>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="16">
-        <v>32</v>
-      </c>
-      <c r="B41" s="44" t="s">
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="76">
+        <v>33</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C42" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="46"/>
+      <c r="E42" s="49"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3570,7 +3624,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3781,7 +3835,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3808,32 +3862,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3860,10 +3914,10 @@
       <c r="D4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="29" t="s">
         <v>131</v>
       </c>
@@ -4120,52 +4174,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="65">
+      <c r="A13" s="67">
         <v>9</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="67" t="s">
         <v>173</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>174</v>
       </c>
       <c r="F13" s="63"/>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="69" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="65"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="63"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="63" t="s">
         <v>176</v>
       </c>
       <c r="F14" s="63"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4380,10 +4434,10 @@
       <c r="D24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="64" t="s">
+      <c r="E24" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="64"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="29" t="s">
         <v>131</v>
       </c>
@@ -4410,10 +4464,10 @@
       <c r="D25" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="59"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4440,10 +4494,10 @@
       <c r="D26" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="59"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4470,10 +4524,10 @@
       <c r="D27" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="59"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="41" t="s">
         <v>192</v>
       </c>
@@ -4500,10 +4554,10 @@
       <c r="D28" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="59"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="32" t="s">
         <v>152</v>
       </c>
@@ -4530,10 +4584,10 @@
       <c r="D29" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="59"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="43" t="s">
         <v>157</v>
       </c>
@@ -4548,48 +4602,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="60">
+      <c r="A30" s="72">
         <v>6</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="72">
         <v>20</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="57" t="s">
+      <c r="F30" s="68"/>
+      <c r="G30" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="73" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="60"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="59" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4604,10 +4658,10 @@
       <c r="D32" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="41" t="s">
         <v>212</v>
       </c>
@@ -4622,50 +4676,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="60">
+      <c r="A33" s="72">
         <v>8</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="72" t="s">
         <v>150</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="F33" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="73" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="60"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4680,10 +4734,10 @@
       <c r="D35" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4710,10 +4764,10 @@
       <c r="D36" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4740,8 +4794,8 @@
       <c r="D37" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="41" t="s">
         <v>192</v>
       </c>
@@ -4757,21 +4811,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4784,35 +4850,23 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FD1F13-52D6-4BF4-A14F-9F34D0D9E3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B98CEE9-CCA7-4E37-B7FC-FC27F6ABB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2849,7 +2849,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B98CEE9-CCA7-4E37-B7FC-FC27F6ABB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB3669-5DC8-4C30-A97E-3518E726B1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2443,6 +2443,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2455,9 +2470,33 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2466,45 +2505,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2848,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2864,10 +2864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="3" t="s">
         <v>229</v>
       </c>
@@ -2879,8 +2879,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="8" t="s">
         <v>110</v>
       </c>
@@ -2892,10 +2892,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
@@ -2907,10 +2907,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -2918,10 +2918,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
@@ -2931,10 +2931,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="44" t="s">
         <v>93</v>
       </c>
@@ -2944,10 +2944,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
@@ -2957,10 +2957,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
@@ -3143,28 +3143,26 @@
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="76">
+      <c r="A18" s="60">
         <v>9</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="60">
         <v>8</v>
       </c>
-      <c r="F18" s="75">
-        <v>2</v>
-      </c>
+      <c r="F18" s="59"/>
       <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="76">
+      <c r="A19" s="60">
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
@@ -3182,7 +3180,7 @@
       <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="76">
+      <c r="A20" s="60">
         <v>11</v>
       </c>
       <c r="B20" s="45" t="s">
@@ -3200,7 +3198,7 @@
       <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="76">
+      <c r="A21" s="60">
         <v>12</v>
       </c>
       <c r="B21" s="45" t="s">
@@ -3218,7 +3216,7 @@
       <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="76">
+      <c r="A22" s="60">
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
@@ -3236,7 +3234,7 @@
       <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="76">
+      <c r="A23" s="60">
         <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
@@ -3254,7 +3252,7 @@
       <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="97.2">
-      <c r="A24" s="76">
+      <c r="A24" s="60">
         <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -3274,7 +3272,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4">
-      <c r="A25" s="76">
+      <c r="A25" s="60">
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
@@ -3294,7 +3292,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="324">
-      <c r="A26" s="76">
+      <c r="A26" s="60">
         <v>17</v>
       </c>
       <c r="B26" s="44" t="s">
@@ -3314,7 +3312,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="81">
-      <c r="A27" s="76">
+      <c r="A27" s="60">
         <v>18</v>
       </c>
       <c r="B27" s="54" t="s">
@@ -3335,7 +3333,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="76">
+      <c r="A28" s="60">
         <v>19</v>
       </c>
       <c r="B28" s="44" t="s">
@@ -3355,7 +3353,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="76">
+      <c r="A29" s="60">
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -3375,7 +3373,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="76">
+      <c r="A30" s="60">
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
@@ -3393,7 +3391,7 @@
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="76">
+      <c r="A31" s="60">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
@@ -3411,7 +3409,7 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" ht="226.8">
-      <c r="A32" s="76">
+      <c r="A32" s="60">
         <v>23</v>
       </c>
       <c r="B32" s="44" t="s">
@@ -3431,7 +3429,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="76">
+      <c r="A33" s="60">
         <v>24</v>
       </c>
       <c r="B33" s="44" t="s">
@@ -3449,7 +3447,7 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="76">
+      <c r="A34" s="60">
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -3467,7 +3465,7 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="76">
+      <c r="A35" s="60">
         <v>26</v>
       </c>
       <c r="B35" s="44" t="s">
@@ -3485,7 +3483,7 @@
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="76">
+      <c r="A36" s="60">
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -3505,7 +3503,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8">
-      <c r="A37" s="76">
+      <c r="A37" s="60">
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
@@ -3525,7 +3523,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="76">
+      <c r="A38" s="60">
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
@@ -3543,7 +3541,7 @@
       <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="76">
+      <c r="A39" s="60">
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -3561,7 +3559,7 @@
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="76">
+      <c r="A40" s="60">
         <v>31</v>
       </c>
       <c r="B40" s="44" t="s">
@@ -3577,7 +3575,7 @@
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="76">
+      <c r="A41" s="60">
         <v>32</v>
       </c>
       <c r="B41" s="44" t="s">
@@ -3595,7 +3593,7 @@
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="76">
+      <c r="A42" s="60">
         <v>33</v>
       </c>
       <c r="B42" s="44" t="s">
@@ -3862,32 +3860,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3914,10 +3912,10 @@
       <c r="D4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="29" t="s">
         <v>131</v>
       </c>
@@ -3944,10 +3942,10 @@
       <c r="D5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3974,10 +3972,10 @@
       <c r="D6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -4004,10 +4002,10 @@
       <c r="D7" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="34" t="s">
         <v>147</v>
       </c>
@@ -4034,10 +4032,10 @@
       <c r="D8" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="32" t="s">
         <v>152</v>
       </c>
@@ -4064,10 +4062,10 @@
       <c r="D9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="35" t="s">
         <v>157</v>
       </c>
@@ -4094,10 +4092,10 @@
       <c r="D10" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="36" t="s">
         <v>163</v>
       </c>
@@ -4156,10 +4154,10 @@
       <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="63"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="32" t="s">
         <v>171</v>
       </c>
@@ -4174,52 +4172,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="67">
+      <c r="A13" s="76">
         <v>9</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="74"/>
+      <c r="G13" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="72" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="67"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="63" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70" t="s">
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4234,10 +4232,10 @@
       <c r="D15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="63"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="32" t="s">
         <v>182</v>
       </c>
@@ -4264,10 +4262,10 @@
       <c r="D16" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="32" t="s">
         <v>187</v>
       </c>
@@ -4294,10 +4292,10 @@
       <c r="D17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="63"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="32" t="s">
         <v>192</v>
       </c>
@@ -4324,10 +4322,10 @@
       <c r="D18" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="32" t="s">
         <v>192</v>
       </c>
@@ -4354,10 +4352,10 @@
       <c r="D19" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="32" t="s">
         <v>192</v>
       </c>
@@ -4434,10 +4432,10 @@
       <c r="D24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="71"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="29" t="s">
         <v>131</v>
       </c>
@@ -4464,10 +4462,10 @@
       <c r="D25" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4494,10 +4492,10 @@
       <c r="D26" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4524,10 +4522,10 @@
       <c r="D27" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="41" t="s">
         <v>192</v>
       </c>
@@ -4554,10 +4552,10 @@
       <c r="D28" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="32" t="s">
         <v>152</v>
       </c>
@@ -4584,10 +4582,10 @@
       <c r="D29" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="43" t="s">
         <v>157</v>
       </c>
@@ -4602,48 +4600,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="72">
+      <c r="A30" s="71">
         <v>6</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="71">
         <v>20</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="73" t="s">
+      <c r="F30" s="70"/>
+      <c r="G30" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="73" t="s">
+      <c r="H30" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="73" t="s">
+      <c r="I30" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="73" t="s">
+      <c r="J30" s="68" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="72"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="68" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4658,10 +4656,10 @@
       <c r="D32" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="41" t="s">
         <v>212</v>
       </c>
@@ -4676,50 +4674,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="72">
+      <c r="A33" s="71">
         <v>8</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="71" t="s">
         <v>150</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="73" t="s">
+      <c r="G33" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="73" t="s">
+      <c r="H33" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="73" t="s">
+      <c r="I33" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="73" t="s">
+      <c r="J33" s="68" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="72"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4734,10 +4732,10 @@
       <c r="D35" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4764,10 +4762,10 @@
       <c r="D36" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="68" t="s">
+      <c r="E36" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4794,8 +4792,8 @@
       <c r="D37" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="41" t="s">
         <v>192</v>
       </c>
@@ -4811,33 +4809,21 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4850,21 +4836,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB3669-5DC8-4C30-A97E-3518E726B1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD2AED-0F7C-4CDE-B244-F95007502E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="2064" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1951,13 +1951,6 @@
 1:需審查/確認
 2:為凍結名單/未確定名單</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessTime</t>
-  </si>
-  <si>
-    <t>處理時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>授權類別</t>
@@ -2265,7 +2258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2422,9 +2415,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2470,41 +2460,41 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2846,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2864,10 +2854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="65"/>
       <c r="C1" s="3" t="s">
         <v>229</v>
       </c>
@@ -2879,8 +2869,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
       <c r="C2" s="8" t="s">
         <v>110</v>
       </c>
@@ -2892,10 +2882,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
@@ -2907,10 +2897,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -2918,10 +2908,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
@@ -2931,10 +2921,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="44" t="s">
         <v>93</v>
       </c>
@@ -2944,10 +2934,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="18" t="s">
         <v>64</v>
       </c>
@@ -2957,10 +2947,10 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="18" t="s">
         <v>65</v>
       </c>
@@ -3093,8 +3083,8 @@
       <c r="B15" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>247</v>
+      <c r="C15" s="52" t="s">
+        <v>245</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>19</v>
@@ -3143,26 +3133,26 @@
       <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>9</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="62" t="s">
+      <c r="B18" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="59">
         <v>8</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="60">
+      <c r="A19" s="59">
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
@@ -3180,7 +3170,7 @@
       <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>11</v>
       </c>
       <c r="B20" s="45" t="s">
@@ -3189,41 +3179,39 @@
       <c r="C20" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="59">
+        <v>12</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E21" s="49">
         <v>8</v>
       </c>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="60">
-        <v>12</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="16">
-        <v>6</v>
-      </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="60">
+      <c r="A22" s="59">
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>55</v>
@@ -3233,33 +3221,35 @@
       </c>
       <c r="G22" s="50"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="60">
+    <row r="23" spans="1:7" ht="97.2">
+      <c r="A23" s="59">
         <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="49">
-        <v>8</v>
-      </c>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="97.2">
-      <c r="A24" s="60">
+        <v>119</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4">
+      <c r="A24" s="59">
         <v>15</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>94</v>
+      <c r="B24" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3267,100 +3257,100 @@
       <c r="E24" s="46">
         <v>1</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
-      <c r="A25" s="60">
+      <c r="G24" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="324">
+      <c r="A25" s="59">
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="46">
+        <v>2</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="81">
+      <c r="A26" s="59">
+        <v>17</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="55">
         <v>1</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="324">
-      <c r="A26" s="60">
-        <v>17</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="44" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="59">
+        <v>18</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="46">
+        <v>6</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="59">
         <v>19</v>
       </c>
-      <c r="E26" s="46">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="81">
-      <c r="A27" s="60">
-        <v>18</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="56">
-        <v>1</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="60">
-        <v>19</v>
-      </c>
       <c r="B28" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="46">
-        <v>6</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="E28" s="49">
+        <v>8</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="60">
+      <c r="A29" s="59">
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>55</v>
@@ -3368,19 +3358,17 @@
       <c r="E29" s="49">
         <v>8</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="60">
+      <c r="A30" s="59">
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>55</v>
@@ -3390,226 +3378,208 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="60">
+    <row r="31" spans="1:7" ht="226.8">
+      <c r="A31" s="59">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="46">
+        <v>2</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="59">
+        <v>23</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="46">
+        <v>100</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="59">
+        <v>24</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="46">
+        <v>10</v>
+      </c>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="59">
+        <v>25</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E34" s="49">
         <v>8</v>
       </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="226.8">
-      <c r="A32" s="60">
-        <v>23</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="44" t="s">
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="59">
+        <v>26</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="46">
-        <v>2</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="60">
-        <v>24</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="46">
-        <v>100</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="60">
-        <v>25</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="46">
-        <v>10</v>
-      </c>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="60">
-        <v>26</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="49">
-        <v>8</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="60">
+      <c r="E35" s="46">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="64.8">
+      <c r="A36" s="59">
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E36" s="46">
         <v>1</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="64.8">
-      <c r="A37" s="60">
+      <c r="G36" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="59">
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E37" s="46">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>244</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="60">
+      <c r="A38" s="59">
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="46">
-        <v>5</v>
-      </c>
-      <c r="G38" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="60">
+      <c r="A39" s="59">
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="49"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="59">
+        <v>31</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E40" s="46">
         <v>6</v>
       </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="60">
-        <v>31</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="59">
+        <v>32</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="60">
-        <v>32</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="46">
-        <v>6</v>
-      </c>
+      <c r="E41" s="49"/>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="60">
-        <v>33</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="46"/>
+      <c r="B42" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3860,32 +3830,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3912,10 +3882,10 @@
       <c r="D4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="79"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="29" t="s">
         <v>131</v>
       </c>
@@ -3942,10 +3912,10 @@
       <c r="D5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3972,10 +3942,10 @@
       <c r="D6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -4002,10 +3972,10 @@
       <c r="D7" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="34" t="s">
         <v>147</v>
       </c>
@@ -4032,10 +4002,10 @@
       <c r="D8" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="32" t="s">
         <v>152</v>
       </c>
@@ -4062,10 +4032,10 @@
       <c r="D9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="35" t="s">
         <v>157</v>
       </c>
@@ -4092,10 +4062,10 @@
       <c r="D10" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="36" t="s">
         <v>163</v>
       </c>
@@ -4154,10 +4124,10 @@
       <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="32" t="s">
         <v>171</v>
       </c>
@@ -4172,52 +4142,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="76">
+      <c r="A13" s="71">
         <v>9</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="72" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="73" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="76"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="74" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4232,10 +4202,10 @@
       <c r="D15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E15" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="32" t="s">
         <v>182</v>
       </c>
@@ -4262,10 +4232,10 @@
       <c r="D16" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="74"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="32" t="s">
         <v>187</v>
       </c>
@@ -4292,10 +4262,10 @@
       <c r="D17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="74"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="32" t="s">
         <v>192</v>
       </c>
@@ -4322,10 +4292,10 @@
       <c r="D18" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="74"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="32" t="s">
         <v>192</v>
       </c>
@@ -4352,10 +4322,10 @@
       <c r="D19" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="74"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="32" t="s">
         <v>192</v>
       </c>
@@ -4462,10 +4432,10 @@
       <c r="D25" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="70"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4492,10 +4462,10 @@
       <c r="D26" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="70"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4522,10 +4492,10 @@
       <c r="D27" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="41" t="s">
         <v>192</v>
       </c>
@@ -4552,10 +4522,10 @@
       <c r="D28" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="32" t="s">
         <v>152</v>
       </c>
@@ -4582,10 +4552,10 @@
       <c r="D29" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="70"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="43" t="s">
         <v>157</v>
       </c>
@@ -4600,48 +4570,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="71">
+      <c r="A30" s="76">
         <v>6</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="71">
+      <c r="C30" s="76">
         <v>20</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="68" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="68" t="s">
+      <c r="J30" s="77" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="71"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="70" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4656,10 +4626,10 @@
       <c r="D32" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="70"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="41" t="s">
         <v>212</v>
       </c>
@@ -4674,50 +4644,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="71">
+      <c r="A33" s="76">
         <v>8</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="76" t="s">
         <v>150</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="68" t="s">
+      <c r="I33" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="68" t="s">
+      <c r="J33" s="77" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="71"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4732,10 +4702,10 @@
       <c r="D35" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="70"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4762,10 +4732,10 @@
       <c r="D36" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="70" t="s">
+      <c r="E36" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="70"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4792,8 +4762,8 @@
       <c r="D37" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="41" t="s">
         <v>192</v>
       </c>
@@ -4809,21 +4779,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4836,33 +4818,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFD2AED-0F7C-4CDE-B244-F95007502E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6CFE8-74F9-4CE2-A43F-29ECFA8442E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="2064" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1976,6 +1976,14 @@
   </si>
   <si>
     <t>每筆扣款限額</t>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2836,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3148,7 +3156,9 @@
       <c r="E18" s="59">
         <v>8</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="58">
+        <v>2</v>
+      </c>
       <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7">
@@ -3173,34 +3183,38 @@
       <c r="A20" s="59">
         <v>11</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="60" t="s">
         <v>100</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="E20" s="49">
+        <v>8</v>
+      </c>
+      <c r="F20" s="58"/>
       <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="59">
         <v>12</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="49">
-        <v>8</v>
-      </c>
+      <c r="B21" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="58">
+        <v>6</v>
+      </c>
+      <c r="F21" s="58"/>
       <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7">
@@ -3208,10 +3222,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>55</v>
@@ -3221,35 +3235,33 @@
       </c>
       <c r="G22" s="50"/>
     </row>
-    <row r="23" spans="1:7" ht="97.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="59">
         <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="46">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.4">
+        <v>28</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="49">
+        <v>8</v>
+      </c>
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" spans="1:7" ht="97.2">
       <c r="A24" s="59">
         <v>15</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>83</v>
+      <c r="B24" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3257,69 +3269,69 @@
       <c r="E24" s="46">
         <v>1</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="324">
+      <c r="G24" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4">
       <c r="A25" s="59">
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="46">
-        <v>2</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="81">
+        <v>1</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="324">
       <c r="A26" s="59">
         <v>17</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="54" t="s">
+      <c r="B26" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="55">
-        <v>1</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="E26" s="46">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="81">
       <c r="A27" s="59">
         <v>18</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="46">
-        <v>6</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>101</v>
+      <c r="B27" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3327,19 +3339,19 @@
         <v>19</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="49">
-        <v>8</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="E28" s="46">
+        <v>6</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3347,10 +3359,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>55</v>
@@ -3358,17 +3370,19 @@
       <c r="E29" s="49">
         <v>8</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="59">
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>55</v>
@@ -3378,170 +3392,172 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" ht="226.8">
+    <row r="31" spans="1:7">
       <c r="A31" s="59">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="46">
-        <v>2</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="49">
+        <v>8</v>
+      </c>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="226.8">
       <c r="A32" s="59">
         <v>23</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" s="46">
-        <v>100</v>
-      </c>
-      <c r="G32" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="59">
         <v>24</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" s="46">
-        <v>10</v>
-      </c>
-      <c r="G33" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="59">
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="49">
-        <v>8</v>
-      </c>
-      <c r="G34" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="46">
+        <v>10</v>
+      </c>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="59">
         <v>26</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="46">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="64.8">
+        <v>60</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="49">
+        <v>8</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="59">
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E36" s="46">
         <v>1</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8">
       <c r="A37" s="59">
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E37" s="46">
-        <v>5</v>
-      </c>
-      <c r="G37" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="59">
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="46">
-        <v>6</v>
-      </c>
-      <c r="G38" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="59">
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="46">
+        <v>6</v>
+      </c>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
@@ -3549,17 +3565,15 @@
         <v>31</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="46">
-        <v>6</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="49"/>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7">
@@ -3567,19 +3581,37 @@
         <v>32</v>
       </c>
       <c r="B41" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="46">
+        <v>6</v>
+      </c>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="59">
+        <v>33</v>
+      </c>
+      <c r="B42" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C42" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D42" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="49"/>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="46"/>
+      <c r="E42" s="49"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3813,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B6CFE8-74F9-4CE2-A43F-29ECFA8442E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202D9DD-F880-4F44-8232-EA840ED1C593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="255">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1983,6 +1983,14 @@
   </si>
   <si>
     <t>處理時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessDateTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理日期時間</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2468,9 +2476,33 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2479,30 +2511,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2844,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3221,18 +3229,17 @@
       <c r="A22" s="59">
         <v>13</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="49">
-        <v>8</v>
-      </c>
+      <c r="B22" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7">
@@ -3240,10 +3247,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>55</v>
@@ -3253,35 +3260,33 @@
       </c>
       <c r="G23" s="50"/>
     </row>
-    <row r="24" spans="1:7" ht="97.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="59">
         <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="46">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
+        <v>28</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="49">
+        <v>8</v>
+      </c>
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="1:7" ht="97.2">
       <c r="A25" s="59">
         <v>16</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>83</v>
+      <c r="B25" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
@@ -3289,69 +3294,69 @@
       <c r="E25" s="46">
         <v>1</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="324">
+      <c r="G25" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.4">
       <c r="A26" s="59">
         <v>17</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="46">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="81">
+        <v>1</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="324">
       <c r="A27" s="59">
         <v>18</v>
       </c>
-      <c r="B27" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="54" t="s">
+      <c r="B27" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="55">
-        <v>1</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="E27" s="46">
+        <v>2</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="81">
       <c r="A28" s="59">
         <v>19</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="46">
-        <v>6</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>101</v>
+      <c r="B28" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="55">
+        <v>1</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3359,19 +3364,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="49">
-        <v>8</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="E29" s="46">
+        <v>6</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3379,10 +3384,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>55</v>
@@ -3390,17 +3395,19 @@
       <c r="E30" s="49">
         <v>8</v>
       </c>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="59">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>55</v>
@@ -3410,170 +3417,172 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" ht="226.8">
+    <row r="32" spans="1:7">
       <c r="A32" s="59">
         <v>23</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="46">
-        <v>2</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="49">
+        <v>8</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="226.8">
       <c r="A33" s="59">
         <v>24</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="46">
-        <v>100</v>
-      </c>
-      <c r="G33" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="59">
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" s="46">
-        <v>10</v>
-      </c>
-      <c r="G34" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="59">
         <v>26</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="49">
-        <v>8</v>
-      </c>
-      <c r="G35" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="46">
+        <v>10</v>
+      </c>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="59">
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="46">
-        <v>1</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="64.8">
+        <v>60</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="49">
+        <v>8</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="59">
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E37" s="46">
         <v>1</v>
       </c>
-      <c r="G37" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="G37" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="64.8">
       <c r="A38" s="59">
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E38" s="46">
-        <v>5</v>
-      </c>
-      <c r="G38" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="59">
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="46">
-        <v>6</v>
-      </c>
-      <c r="G39" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="G39" s="47"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="59">
         <v>31</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="46">
+        <v>6</v>
+      </c>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7">
@@ -3581,17 +3590,15 @@
         <v>32</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="46">
-        <v>6</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="49"/>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7">
@@ -3599,19 +3606,37 @@
         <v>33</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="46">
+        <v>6</v>
+      </c>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="59">
+        <v>34</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C43" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D43" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="46"/>
+      <c r="E43" s="49"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3862,32 +3887,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3914,10 +3939,10 @@
       <c r="D4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="29" t="s">
         <v>131</v>
       </c>
@@ -3944,10 +3969,10 @@
       <c r="D5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3974,10 +3999,10 @@
       <c r="D6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -4004,10 +4029,10 @@
       <c r="D7" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="34" t="s">
         <v>147</v>
       </c>
@@ -4034,10 +4059,10 @@
       <c r="D8" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="32" t="s">
         <v>152</v>
       </c>
@@ -4064,10 +4089,10 @@
       <c r="D9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="35" t="s">
         <v>157</v>
       </c>
@@ -4094,10 +4119,10 @@
       <c r="D10" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="36" t="s">
         <v>163</v>
       </c>
@@ -4156,10 +4181,10 @@
       <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="67"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="32" t="s">
         <v>171</v>
       </c>
@@ -4174,52 +4199,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="71">
+      <c r="A13" s="75">
         <v>9</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="73" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="71" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="71"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="67" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4234,10 +4259,10 @@
       <c r="D15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="32" t="s">
         <v>182</v>
       </c>
@@ -4264,10 +4289,10 @@
       <c r="D16" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="67"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="32" t="s">
         <v>187</v>
       </c>
@@ -4294,10 +4319,10 @@
       <c r="D17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="32" t="s">
         <v>192</v>
       </c>
@@ -4324,10 +4349,10 @@
       <c r="D18" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="67"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="32" t="s">
         <v>192</v>
       </c>
@@ -4354,10 +4379,10 @@
       <c r="D19" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="67"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="32" t="s">
         <v>192</v>
       </c>
@@ -4434,10 +4459,10 @@
       <c r="D24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="75"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="29" t="s">
         <v>131</v>
       </c>
@@ -4464,10 +4489,10 @@
       <c r="D25" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4494,10 +4519,10 @@
       <c r="D26" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4524,10 +4549,10 @@
       <c r="D27" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="41" t="s">
         <v>192</v>
       </c>
@@ -4554,10 +4579,10 @@
       <c r="D28" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="72"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="32" t="s">
         <v>152</v>
       </c>
@@ -4584,10 +4609,10 @@
       <c r="D29" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="72"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="43" t="s">
         <v>157</v>
       </c>
@@ -4602,48 +4627,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="76">
+      <c r="A30" s="70">
         <v>6</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="70">
         <v>20</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="77" t="s">
+      <c r="F30" s="69"/>
+      <c r="G30" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="77" t="s">
+      <c r="H30" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="67" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="76"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="72" t="s">
+      <c r="A31" s="70"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4658,10 +4683,10 @@
       <c r="D32" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="72"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="41" t="s">
         <v>212</v>
       </c>
@@ -4676,50 +4701,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="76">
+      <c r="A33" s="70">
         <v>8</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="70" t="s">
         <v>150</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="77" t="s">
+      <c r="J33" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4734,10 +4759,10 @@
       <c r="D35" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4764,10 +4789,10 @@
       <c r="D36" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="72"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4794,8 +4819,8 @@
       <c r="D37" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="41" t="s">
         <v>192</v>
       </c>
@@ -4811,33 +4836,21 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4850,21 +4863,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202D9DD-F880-4F44-8232-EA840ED1C593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D440E04-9B6D-458D-AAD9-966D88892A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1983,14 +1983,6 @@
   </si>
   <si>
     <t>處理時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessDateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理日期時間</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2476,41 +2468,41 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2852,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3229,17 +3221,18 @@
       <c r="A22" s="59">
         <v>13</v>
       </c>
-      <c r="B22" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="B22" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="49">
+        <v>8</v>
+      </c>
       <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7">
@@ -3247,10 +3240,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>55</v>
@@ -3260,33 +3253,35 @@
       </c>
       <c r="G23" s="50"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="97.2">
       <c r="A24" s="59">
         <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="49">
-        <v>8</v>
-      </c>
-      <c r="G24" s="50"/>
-    </row>
-    <row r="25" spans="1:7" ht="97.2">
+        <v>119</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="46">
+        <v>1</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4">
       <c r="A25" s="59">
         <v>16</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>94</v>
+      <c r="B25" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
@@ -3294,69 +3289,69 @@
       <c r="E25" s="46">
         <v>1</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32.4">
+      <c r="G25" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="324">
       <c r="A26" s="59">
         <v>17</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="46">
-        <v>1</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="324">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="81">
       <c r="A27" s="59">
         <v>18</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="44" t="s">
+      <c r="B27" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="46">
-        <v>2</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="81">
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="59">
         <v>19</v>
       </c>
-      <c r="B28" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="55">
-        <v>1</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57" t="s">
-        <v>248</v>
+      <c r="B28" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="46">
+        <v>6</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3364,19 +3359,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="46">
-        <v>6</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="E29" s="49">
+        <v>8</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3384,10 +3379,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>55</v>
@@ -3395,19 +3390,17 @@
       <c r="E30" s="49">
         <v>8</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="59">
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>55</v>
@@ -3417,172 +3410,170 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="226.8">
       <c r="A32" s="59">
         <v>23</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="49">
-        <v>8</v>
-      </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="226.8">
+        <v>38</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="46">
+        <v>2</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="59">
         <v>24</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33" s="46">
-        <v>2</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>242</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="59">
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="46">
-        <v>100</v>
-      </c>
-      <c r="G34" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="59">
         <v>26</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="46">
-        <v>10</v>
-      </c>
-      <c r="G35" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="49">
+        <v>8</v>
+      </c>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="59">
         <v>27</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="49">
-        <v>8</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="46">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8">
       <c r="A37" s="59">
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E37" s="46">
         <v>1</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="64.8">
+      <c r="G37" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="59">
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E38" s="46">
-        <v>1</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>244</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="59">
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="46">
-        <v>5</v>
-      </c>
-      <c r="G39" s="47"/>
+        <v>6</v>
+      </c>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="59">
         <v>31</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="46">
-        <v>6</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="49"/>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7">
@@ -3590,15 +3581,17 @@
         <v>32</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="49"/>
+        <v>29</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="46">
+        <v>6</v>
+      </c>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7">
@@ -3606,37 +3599,19 @@
         <v>33</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="46">
-        <v>6</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="49"/>
       <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="59">
-        <v>34</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="49"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="46"/>
+      <c r="B43" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3887,32 +3862,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3939,10 +3914,10 @@
       <c r="D4" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="29" t="s">
         <v>131</v>
       </c>
@@ -3969,10 +3944,10 @@
       <c r="D5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3999,10 +3974,10 @@
       <c r="D6" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -4029,10 +4004,10 @@
       <c r="D7" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="34" t="s">
         <v>147</v>
       </c>
@@ -4059,10 +4034,10 @@
       <c r="D8" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="32" t="s">
         <v>152</v>
       </c>
@@ -4089,10 +4064,10 @@
       <c r="D9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="35" t="s">
         <v>157</v>
       </c>
@@ -4119,10 +4094,10 @@
       <c r="D10" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="36" t="s">
         <v>163</v>
       </c>
@@ -4181,10 +4156,10 @@
       <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="32" t="s">
         <v>171</v>
       </c>
@@ -4199,52 +4174,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="75">
+      <c r="A13" s="71">
         <v>9</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="73" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="75"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="73" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="72"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4259,10 +4234,10 @@
       <c r="D15" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="32" t="s">
         <v>182</v>
       </c>
@@ -4289,10 +4264,10 @@
       <c r="D16" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="32" t="s">
         <v>187</v>
       </c>
@@ -4319,10 +4294,10 @@
       <c r="D17" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="32" t="s">
         <v>192</v>
       </c>
@@ -4349,10 +4324,10 @@
       <c r="D18" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="32" t="s">
         <v>192</v>
       </c>
@@ -4379,10 +4354,10 @@
       <c r="D19" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="32" t="s">
         <v>192</v>
       </c>
@@ -4459,10 +4434,10 @@
       <c r="D24" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="74"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="29" t="s">
         <v>131</v>
       </c>
@@ -4489,10 +4464,10 @@
       <c r="D25" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="69"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4519,10 +4494,10 @@
       <c r="D26" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4549,10 +4524,10 @@
       <c r="D27" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="41" t="s">
         <v>192</v>
       </c>
@@ -4579,10 +4554,10 @@
       <c r="D28" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="32" t="s">
         <v>152</v>
       </c>
@@ -4609,10 +4584,10 @@
       <c r="D29" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="43" t="s">
         <v>157</v>
       </c>
@@ -4627,48 +4602,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="70">
+      <c r="A30" s="76">
         <v>6</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="76">
         <v>20</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="77" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="69" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4683,10 +4658,10 @@
       <c r="D32" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="41" t="s">
         <v>212</v>
       </c>
@@ -4701,50 +4676,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="70">
+      <c r="A33" s="76">
         <v>8</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="76" t="s">
         <v>150</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="77" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4759,10 +4734,10 @@
       <c r="D35" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="69"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4789,10 +4764,10 @@
       <c r="D36" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4819,8 +4794,8 @@
       <c r="D37" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="41" t="s">
         <v>192</v>
       </c>
@@ -4836,21 +4811,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4863,33 +4850,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D440E04-9B6D-458D-AAD9-966D88892A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -132,10 +131,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CustId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>ProcessDate</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -384,10 +379,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>StampCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>fileSeqFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -476,10 +467,6 @@
   <si>
     <t>repayAcctFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>核印註記</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>媒體碼</t>
@@ -1888,18 +1875,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.StampCode
-1:帳號不符
-2:戶名不符
-3:身分證號不符
-4:印鑑不符
-9:其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>空白:未產出前
 Y:產出後</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權類別</t>
+  </si>
+  <si>
+    <t>AuthMeth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>授權方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AchAuthCode
+A:紙本新增
+O:舊檔轉換
+X:紙本終止
+R:申請恢復</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitAmt</t>
+  </si>
+  <si>
+    <t>每筆扣款限額</t>
+  </si>
+  <si>
+    <t>ProcessTime</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理時間</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>StampCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.AuthErrorCode
@@ -1925,71 +1972,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.RelationCode
-00:本人
-01:夫
-02:妻
-03:父
-04:母
-05:子
-06:女
-07:兄
-08:弟
-09:姊
-10:妹
-11:姪子
-99:其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AmlCheckItem
-0:非可疑名單/已完成名單確認
-1:需審查/確認
-2:為凍結名單/未確定名單</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權類別</t>
-  </si>
-  <si>
-    <t>AuthMeth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>授權方式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AchAuthCode
-A:紙本新增
-O:舊檔轉換
-X:紙本終止
-R:申請恢復</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitAmt</t>
-  </si>
-  <si>
-    <t>每筆扣款限額</t>
-  </si>
-  <si>
-    <t>ProcessTime</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>核印註記</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.StampCode
+1:帳號不符
+2:戶名不符
+3:身分證號不符
+4:印鑑不符
+9:其他
+空:未核印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -2468,9 +2468,33 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2479,36 +2503,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{030BEEDE-4EFE-4A4E-9170-44047ED2BC58}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2599,23 +2599,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2651,23 +2634,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2843,11 +2809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2867,10 +2833,10 @@
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2880,7 +2846,7 @@
       <c r="A2" s="64"/>
       <c r="B2" s="65"/>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2895,7 +2861,7 @@
       </c>
       <c r="B3" s="63"/>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -2921,7 +2887,7 @@
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -2934,7 +2900,7 @@
       </c>
       <c r="B6" s="65"/>
       <c r="C6" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -2947,7 +2913,7 @@
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -2956,11 +2922,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -2995,13 +2961,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="49">
         <v>8</v>
@@ -3013,10 +2979,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>19</v>
@@ -3025,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3036,10 +3002,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="49">
         <v>7</v>
@@ -3051,7 +3017,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>26</v>
@@ -3063,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3071,10 +3037,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>19</v>
@@ -3089,10 +3055,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>19</v>
@@ -3101,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3109,13 +3075,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="46">
         <v>3</v>
@@ -3127,10 +3093,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>19</v>
@@ -3145,13 +3111,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="59">
         <v>8</v>
@@ -3166,7 +3132,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>27</v>
@@ -3184,13 +3150,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="49">
         <v>8</v>
@@ -3203,13 +3169,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="58">
         <v>6</v>
@@ -3222,13 +3188,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="49">
         <v>8</v>
@@ -3240,28 +3206,28 @@
         <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="45" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="49">
         <v>8</v>
       </c>
       <c r="G23" s="50"/>
     </row>
-    <row r="24" spans="1:7" ht="97.2">
+    <row r="24" spans="1:7" ht="113.4">
       <c r="A24" s="59">
         <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3270,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4">
@@ -3278,10 +3244,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
@@ -3290,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="324">
@@ -3298,10 +3264,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>19</v>
@@ -3310,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="81">
@@ -3318,10 +3284,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>19</v>
@@ -3331,7 +3297,7 @@
       </c>
       <c r="F27" s="56"/>
       <c r="G27" s="57" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3339,19 +3305,19 @@
         <v>19</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3359,19 +3325,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="49">
         <v>8</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3379,13 +3345,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="49">
         <v>8</v>
@@ -3397,13 +3363,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>228</v>
-      </c>
       <c r="D31" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="49">
         <v>8</v>
@@ -3415,10 +3381,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="44" t="s">
         <v>19</v>
@@ -3427,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3438,7 +3404,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>20</v>
@@ -3453,10 +3419,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="44" t="s">
         <v>19</v>
@@ -3474,10 +3440,10 @@
         <v>24</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="49">
         <v>8</v>
@@ -3492,7 +3458,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>19</v>
@@ -3501,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8">
@@ -3509,19 +3475,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="46">
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3529,10 +3495,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>19</v>
@@ -3547,10 +3513,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="45" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>70</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>19</v>
@@ -3568,10 +3534,10 @@
         <v>21</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="49"/>
       <c r="G40" s="20"/>
@@ -3581,7 +3547,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>29</v>
@@ -3602,10 +3568,10 @@
         <v>22</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42" s="49"/>
       <c r="G42" s="20"/>
@@ -3631,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3660,178 +3626,178 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3862,32 +3828,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="A1" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="A2" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3903,32 +3869,32 @@
     </row>
     <row r="4" spans="1:10" ht="48.6">
       <c r="A4" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="I4" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3936,18 +3902,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="67"/>
+        <v>133</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="73"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3966,29 +3932,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I6" s="32">
         <v>846</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3996,29 +3962,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="34" t="s">
-        <v>147</v>
-      </c>
       <c r="H7" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.8">
@@ -4026,29 +3992,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="F8" s="73"/>
+      <c r="G8" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="32" t="s">
-        <v>152</v>
-      </c>
       <c r="H8" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4056,29 +4022,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="F9" s="73"/>
+      <c r="G9" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="H9" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>158</v>
-      </c>
       <c r="J9" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4086,29 +4052,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="H10" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>164</v>
-      </c>
       <c r="J10" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="97.2">
@@ -4116,25 +4082,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C11" s="30">
         <v>26</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I11" s="32">
         <v>1</v>
@@ -4148,107 +4114,107 @@
         <v>8</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="30">
         <v>27</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="75">
+        <v>9</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="32" t="s">
+      <c r="E13" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="71">
-        <v>9</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="71" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="H13" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="75"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="71"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="72"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
         <v>10</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="F15" s="73"/>
+      <c r="G15" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="32" t="s">
-        <v>182</v>
-      </c>
       <c r="H15" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4">
@@ -4256,29 +4222,29 @@
         <v>11</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="32" t="s">
-        <v>187</v>
-      </c>
       <c r="H16" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4286,29 +4252,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="32" t="s">
-        <v>192</v>
-      </c>
       <c r="H17" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4316,29 +4282,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="30">
         <v>74</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="67"/>
+        <v>133</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="73"/>
       <c r="G18" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4346,29 +4312,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="67"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4409,7 +4375,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -4423,32 +4389,32 @@
     </row>
     <row r="24" spans="1:10" ht="48.6">
       <c r="A24" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="74"/>
+      <c r="G24" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="H24" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="I24" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="29" t="s">
+      <c r="J24" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4456,18 +4422,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C25" s="39">
         <v>1</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="72"/>
+        <v>133</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="69"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4486,29 +4452,29 @@
         <v>2</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C26" s="42">
         <v>43135</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="72"/>
+        <v>137</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="69"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I26" s="41">
         <v>846</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4516,29 +4482,29 @@
         <v>3</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C27" s="42">
         <v>43228</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="72"/>
+        <v>142</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="69"/>
       <c r="G27" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.8">
@@ -4546,29 +4512,29 @@
         <v>4</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="42">
         <v>43359</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="72"/>
+        <v>147</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="69"/>
       <c r="G28" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4576,168 +4542,168 @@
         <v>5</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="69"/>
+      <c r="G29" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="70">
+        <v>6</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="70">
+        <v>20</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="69"/>
+      <c r="G30" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="76">
-        <v>6</v>
-      </c>
-      <c r="B30" s="72" t="s">
+      <c r="H30" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="70"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="76">
-        <v>20</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="I30" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30" s="77" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="76"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
         <v>7</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="69"/>
+      <c r="G32" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="H32" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="70">
+        <v>8</v>
+      </c>
+      <c r="B33" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="72" t="s">
+      <c r="C33" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="41" t="s">
+      <c r="D33" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="76">
-        <v>8</v>
-      </c>
-      <c r="B33" s="72" t="s">
+      <c r="F33" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="G33" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="70"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="H33" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="J33" s="77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
         <v>9</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="F35" s="72"/>
+        <v>158</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="69"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4756,18 +4722,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="F36" s="72"/>
+        <v>158</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="69"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4786,58 +4752,46 @@
         <v>11</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
+        <v>221</v>
+      </c>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4850,21 +4804,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCCF45D-FF01-4E35-BF9E-AC397A331EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1989,7 +1990,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -2468,47 +2469,47 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2599,6 +2600,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2634,6 +2652,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2809,22 +2844,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="8" max="16384" width="21.453125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2855,7 +2890,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6">
+    <row r="3" spans="1:7" ht="51">
       <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +3009,7 @@
       </c>
       <c r="G10" s="50"/>
     </row>
-    <row r="11" spans="1:7" ht="97.2">
+    <row r="11" spans="1:7" ht="102">
       <c r="A11" s="46">
         <v>2</v>
       </c>
@@ -3012,7 +3047,7 @@
       </c>
       <c r="G12" s="50"/>
     </row>
-    <row r="13" spans="1:7" ht="48.6">
+    <row r="13" spans="1:7" ht="51">
       <c r="A13" s="46">
         <v>4</v>
       </c>
@@ -3050,7 +3085,7 @@
       </c>
       <c r="G14" s="50"/>
     </row>
-    <row r="15" spans="1:7" ht="48.6">
+    <row r="15" spans="1:7" ht="51">
       <c r="A15" s="46">
         <v>6</v>
       </c>
@@ -3219,7 +3254,7 @@
       </c>
       <c r="G23" s="50"/>
     </row>
-    <row r="24" spans="1:7" ht="113.4">
+    <row r="24" spans="1:7" ht="119">
       <c r="A24" s="59">
         <v>15</v>
       </c>
@@ -3239,7 +3274,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32.4">
+    <row r="25" spans="1:7" ht="34">
       <c r="A25" s="59">
         <v>16</v>
       </c>
@@ -3259,7 +3294,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="324">
+    <row r="26" spans="1:7" ht="340">
       <c r="A26" s="59">
         <v>17</v>
       </c>
@@ -3279,7 +3314,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="81">
+    <row r="27" spans="1:7" ht="85">
       <c r="A27" s="59">
         <v>18</v>
       </c>
@@ -3376,7 +3411,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" ht="226.8">
+    <row r="32" spans="1:7" ht="238">
       <c r="A32" s="59">
         <v>23</v>
       </c>
@@ -3470,7 +3505,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="64.8">
+    <row r="37" spans="1:7" ht="68">
       <c r="A37" s="59">
         <v>28</v>
       </c>
@@ -3597,7 +3632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3605,11 +3640,11 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3808,52 +3843,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.90625" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3867,7 +3902,7 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" ht="48.6">
+    <row r="4" spans="1:10" ht="51">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -3880,10 +3915,10 @@
       <c r="D4" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="29" t="s">
         <v>128</v>
       </c>
@@ -3910,10 +3945,10 @@
       <c r="D5" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3940,10 +3975,10 @@
       <c r="D6" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -3970,10 +4005,10 @@
       <c r="D7" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="34" t="s">
         <v>144</v>
       </c>
@@ -3987,7 +4022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="31.8">
+    <row r="8" spans="1:10" ht="32.5">
       <c r="A8" s="30">
         <v>4</v>
       </c>
@@ -4000,10 +4035,10 @@
       <c r="D8" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="32" t="s">
         <v>149</v>
       </c>
@@ -4030,10 +4065,10 @@
       <c r="D9" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="35" t="s">
         <v>154</v>
       </c>
@@ -4060,10 +4095,10 @@
       <c r="D10" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="36" t="s">
         <v>160</v>
       </c>
@@ -4077,7 +4112,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="97.2">
+    <row r="11" spans="1:10" ht="102">
       <c r="A11" s="30">
         <v>7</v>
       </c>
@@ -4122,10 +4157,10 @@
       <c r="D12" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="32" t="s">
         <v>168</v>
       </c>
@@ -4140,54 +4175,54 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="75">
+      <c r="A13" s="71">
         <v>9</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="73" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="75"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="73" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="72"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.8">
+      <c r="J14" s="74"/>
+    </row>
+    <row r="15" spans="1:10" ht="32.5">
       <c r="A15" s="30">
         <v>10</v>
       </c>
@@ -4200,10 +4235,10 @@
       <c r="D15" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="32" t="s">
         <v>179</v>
       </c>
@@ -4217,7 +4252,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32.4">
+    <row r="16" spans="1:10" ht="34">
       <c r="A16" s="30">
         <v>11</v>
       </c>
@@ -4230,10 +4265,10 @@
       <c r="D16" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="32" t="s">
         <v>184</v>
       </c>
@@ -4260,10 +4295,10 @@
       <c r="D17" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="32" t="s">
         <v>189</v>
       </c>
@@ -4290,10 +4325,10 @@
       <c r="D18" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="32" t="s">
         <v>189</v>
       </c>
@@ -4320,10 +4355,10 @@
       <c r="D19" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="32" t="s">
         <v>189</v>
       </c>
@@ -4387,7 +4422,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" ht="48.6">
+    <row r="24" spans="1:10" ht="51">
       <c r="A24" s="38" t="s">
         <v>124</v>
       </c>
@@ -4400,10 +4435,10 @@
       <c r="D24" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="74"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="29" t="s">
         <v>128</v>
       </c>
@@ -4430,10 +4465,10 @@
       <c r="D25" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="69"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4460,10 +4495,10 @@
       <c r="D26" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4490,10 +4525,10 @@
       <c r="D27" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="41" t="s">
         <v>189</v>
       </c>
@@ -4507,7 +4542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="31.8">
+    <row r="28" spans="1:10" ht="32.5">
       <c r="A28" s="39">
         <v>4</v>
       </c>
@@ -4520,10 +4555,10 @@
       <c r="D28" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="32" t="s">
         <v>149</v>
       </c>
@@ -4550,10 +4585,10 @@
       <c r="D29" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="43" t="s">
         <v>154</v>
       </c>
@@ -4568,48 +4603,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="70">
+      <c r="A30" s="76">
         <v>6</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="76">
         <v>20</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="77" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="69" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4624,10 +4659,10 @@
       <c r="D32" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="41" t="s">
         <v>209</v>
       </c>
@@ -4642,50 +4677,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="70">
+      <c r="A33" s="76">
         <v>8</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="76" t="s">
         <v>147</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="77" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4700,10 +4735,10 @@
       <c r="D35" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="F35" s="69"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4730,10 +4765,10 @@
       <c r="D36" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4760,8 +4795,8 @@
       <c r="D37" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="41" t="s">
         <v>189</v>
       </c>
@@ -4777,21 +4812,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4804,33 +4851,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCCF45D-FF01-4E35-BF9E-AC397A331EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -336,10 +335,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PostMediaCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>PostDepCode</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1873,11 +1868,6 @@
     <t>CdCode.AuthCode
 1:期款
 2:火險</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白:未產出前
-Y:產出後</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1986,11 +1976,20 @@
 空:未核印</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>PostMediaCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值:未產出前
+Y:產出後</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -2469,9 +2468,33 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2480,36 +2503,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2600,23 +2599,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2652,23 +2634,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2844,22 +2809,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="7"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2868,10 +2833,10 @@
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2881,7 +2846,7 @@
       <c r="A2" s="64"/>
       <c r="B2" s="65"/>
       <c r="C2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2890,7 +2855,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="51">
+    <row r="3" spans="1:7" ht="48.6">
       <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
@@ -2935,7 +2900,7 @@
       </c>
       <c r="B6" s="65"/>
       <c r="C6" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -2999,7 +2964,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>54</v>
@@ -3009,12 +2974,12 @@
       </c>
       <c r="G10" s="50"/>
     </row>
-    <row r="11" spans="1:7" ht="102">
+    <row r="11" spans="1:7" ht="97.2">
       <c r="A11" s="46">
         <v>2</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>53</v>
@@ -3026,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3037,7 +3002,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>38</v>
@@ -3047,12 +3012,12 @@
       </c>
       <c r="G12" s="50"/>
     </row>
-    <row r="13" spans="1:7" ht="51">
+    <row r="13" spans="1:7" ht="48.6">
       <c r="A13" s="46">
         <v>4</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>26</v>
@@ -3064,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3075,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>19</v>
@@ -3085,7 +3050,7 @@
       </c>
       <c r="G14" s="50"/>
     </row>
-    <row r="15" spans="1:7" ht="51">
+    <row r="15" spans="1:7" ht="48.6">
       <c r="A15" s="46">
         <v>6</v>
       </c>
@@ -3093,7 +3058,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>19</v>
@@ -3102,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3110,7 +3075,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>70</v>
@@ -3128,10 +3093,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>19</v>
@@ -3146,10 +3111,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>66</v>
@@ -3188,7 +3153,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>54</v>
@@ -3204,10 +3169,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D21" s="61" t="s">
         <v>38</v>
@@ -3254,15 +3219,15 @@
       </c>
       <c r="G23" s="50"/>
     </row>
-    <row r="24" spans="1:7" ht="119">
+    <row r="24" spans="1:7" ht="113.4">
       <c r="A24" s="59">
         <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="45" t="s">
         <v>249</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>251</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3271,18 +3236,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4">
       <c r="A25" s="59">
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
@@ -3291,18 +3256,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="340">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="324">
       <c r="A26" s="59">
         <v>17</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>19</v>
@@ -3311,18 +3276,18 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="85">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="81">
       <c r="A27" s="59">
         <v>18</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>19</v>
@@ -3332,7 +3297,7 @@
       </c>
       <c r="F27" s="56"/>
       <c r="G27" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3340,10 +3305,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>38</v>
@@ -3352,7 +3317,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3360,7 +3325,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="45" t="s">
         <v>35</v>
@@ -3372,7 +3337,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3398,10 +3363,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="48" t="s">
         <v>54</v>
@@ -3411,7 +3376,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" ht="238">
+    <row r="32" spans="1:7" ht="226.8">
       <c r="A32" s="59">
         <v>23</v>
       </c>
@@ -3428,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3454,10 +3419,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="45" t="s">
         <v>111</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>112</v>
       </c>
       <c r="D34" s="44" t="s">
         <v>19</v>
@@ -3502,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="68">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8">
       <c r="A37" s="59">
         <v>28</v>
       </c>
@@ -3522,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3530,10 +3495,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>231</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>232</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>19</v>
@@ -3569,7 +3534,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>52</v>
@@ -3603,7 +3568,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>52</v>
@@ -3632,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3640,11 +3605,11 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3677,10 +3642,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3699,7 +3664,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3710,7 +3675,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3740,7 +3705,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3748,7 +3713,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3756,15 +3721,15 @@
         <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3772,31 +3737,31 @@
         <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
@@ -3804,35 +3769,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3843,52 +3808,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="28.90625" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3902,34 +3867,34 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="1:10" ht="51">
+    <row r="4" spans="1:10" ht="48.6">
       <c r="A4" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="E4" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3937,18 +3902,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="30">
         <v>1</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3967,29 +3932,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="32">
         <v>846</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3997,59 +3962,59 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="34" t="s">
-        <v>144</v>
-      </c>
       <c r="H7" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.8">
       <c r="A8" s="30">
         <v>4</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="F8" s="73"/>
+      <c r="G8" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="32" t="s">
-        <v>149</v>
-      </c>
       <c r="H8" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J8" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4057,29 +4022,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="F9" s="73"/>
+      <c r="G9" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="35" t="s">
+      <c r="H9" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="J9" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4087,55 +4052,55 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="F10" s="73"/>
+      <c r="G10" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="102">
+    </row>
+    <row r="11" spans="1:10" ht="97.2">
       <c r="A11" s="30">
         <v>7</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="30">
         <v>26</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="G11" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="H11" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" s="32">
         <v>1</v>
@@ -4149,137 +4114,137 @@
         <v>8</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="30">
         <v>27</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="32" t="s">
+      <c r="H12" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="75">
+        <v>9</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="71">
-        <v>9</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="71" t="s">
+      <c r="D13" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="E13" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="F13" s="73"/>
+      <c r="G13" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="73" t="s">
+      <c r="H13" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="75"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="71"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="67" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="74"/>
-    </row>
-    <row r="15" spans="1:10" ht="32.5">
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
         <v>10</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="E15" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="F15" s="73"/>
+      <c r="G15" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="32" t="s">
-        <v>179</v>
-      </c>
       <c r="H15" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="34">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32.4">
       <c r="A16" s="30">
         <v>11</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="E16" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="32" t="s">
-        <v>184</v>
-      </c>
       <c r="H16" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4287,29 +4252,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="32" t="s">
-        <v>189</v>
-      </c>
       <c r="H17" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4317,29 +4282,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" s="30">
         <v>74</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="32" t="s">
-        <v>189</v>
-      </c>
       <c r="H18" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4347,29 +4312,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="67"/>
+      <c r="E19" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="73"/>
       <c r="G19" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4410,7 +4375,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -4422,34 +4387,34 @@
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" ht="51">
+    <row r="24" spans="1:10" ht="48.6">
       <c r="A24" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="E24" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="F24" s="74"/>
+      <c r="G24" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="29" t="s">
+      <c r="H24" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="I24" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="J24" s="29" t="s">
         <v>130</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4457,18 +4422,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="39">
         <v>1</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="72"/>
+        <v>132</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="69"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4487,29 +4452,29 @@
         <v>2</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="42">
         <v>43135</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="72"/>
+        <v>136</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="69"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I26" s="41">
         <v>846</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4517,59 +4482,59 @@
         <v>3</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="42">
         <v>43228</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="72"/>
+        <v>141</v>
+      </c>
+      <c r="E27" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="69"/>
       <c r="G27" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="32.5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.8">
       <c r="A28" s="39">
         <v>4</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="42">
         <v>43359</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="72"/>
+        <v>146</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="69"/>
       <c r="G28" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4577,168 +4542,168 @@
         <v>5</v>
       </c>
       <c r="B29" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="69"/>
+      <c r="G29" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="70">
+        <v>6</v>
+      </c>
+      <c r="B30" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="76">
-        <v>6</v>
-      </c>
-      <c r="B30" s="72" t="s">
+      <c r="C30" s="70">
+        <v>20</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="C30" s="76">
-        <v>20</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="72" t="s">
+      <c r="F30" s="69"/>
+      <c r="G30" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="77" t="s">
+      <c r="H30" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="70"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="J30" s="77" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="76"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
         <v>7</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="D32" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="72" t="s">
+      <c r="F32" s="69"/>
+      <c r="G32" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="41" t="s">
+      <c r="H32" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="70">
+        <v>8</v>
+      </c>
+      <c r="B33" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="I32" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="76">
-        <v>8</v>
-      </c>
-      <c r="B33" s="72" t="s">
+      <c r="C33" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="D33" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" s="40" t="s">
+      <c r="F33" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="G33" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="70"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="I33" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" s="77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
         <v>9</v>
       </c>
       <c r="B35" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="D35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="72"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4757,18 +4722,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>219</v>
-      </c>
       <c r="D36" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" s="72"/>
+        <v>157</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="69"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4787,58 +4752,46 @@
         <v>11</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4851,21 +4804,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B263F5FD-F475-46FF-A176-3F9ABD63C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1848,15 +1849,6 @@
   <si>
     <t>交易代號</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AuthApplCode
-1:申請
-2:終止
-3:郵局終止
-4:誤終止
-9:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.PostDepCode
@@ -1985,11 +1977,21 @@
 Y:產出後</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>CdCode.AuthApplCode
+1:申請
+2:終止
+3:郵局終止
+4:誤終止
+8:恢復授權
+9:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -2468,47 +2470,47 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2599,6 +2601,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2634,6 +2653,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2809,11 +2845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2974,7 +3010,7 @@
       </c>
       <c r="G10" s="50"/>
     </row>
-    <row r="11" spans="1:7" ht="97.2">
+    <row r="11" spans="1:7" ht="113.4">
       <c r="A11" s="46">
         <v>2</v>
       </c>
@@ -2991,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3029,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3058,7 +3094,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>19</v>
@@ -3067,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3093,7 +3129,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>105</v>
@@ -3111,10 +3147,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>242</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>243</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>66</v>
@@ -3169,10 +3205,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>244</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>245</v>
       </c>
       <c r="D21" s="61" t="s">
         <v>38</v>
@@ -3224,10 +3260,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D24" s="44" t="s">
         <v>19</v>
@@ -3236,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4">
@@ -3244,7 +3280,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25" s="45" t="s">
         <v>116</v>
@@ -3256,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="324">
@@ -3276,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="81">
@@ -3284,10 +3320,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="52" t="s">
         <v>239</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>240</v>
       </c>
       <c r="D27" s="54" t="s">
         <v>19</v>
@@ -3297,7 +3333,7 @@
       </c>
       <c r="F27" s="56"/>
       <c r="G27" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3393,7 +3429,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3467,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8">
@@ -3487,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3597,7 +3633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3808,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3828,32 +3864,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="25"/>
@@ -3880,10 +3916,10 @@
       <c r="D4" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="29" t="s">
         <v>127</v>
       </c>
@@ -3910,10 +3946,10 @@
       <c r="D5" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="32">
         <v>1</v>
       </c>
@@ -3940,10 +3976,10 @@
       <c r="D6" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="32">
         <v>846</v>
       </c>
@@ -3970,10 +4006,10 @@
       <c r="D7" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="34" t="s">
         <v>143</v>
       </c>
@@ -4000,10 +4036,10 @@
       <c r="D8" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="32" t="s">
         <v>148</v>
       </c>
@@ -4030,10 +4066,10 @@
       <c r="D9" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="E9" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="35" t="s">
         <v>153</v>
       </c>
@@ -4060,10 +4096,10 @@
       <c r="D10" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="36" t="s">
         <v>159</v>
       </c>
@@ -4122,10 +4158,10 @@
       <c r="D12" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="32" t="s">
         <v>167</v>
       </c>
@@ -4140,52 +4176,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="75">
+      <c r="A13" s="71">
         <v>9</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71" t="s">
+      <c r="F13" s="67"/>
+      <c r="G13" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="73" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="75"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="73" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="72"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="30">
@@ -4200,10 +4236,10 @@
       <c r="D15" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="32" t="s">
         <v>178</v>
       </c>
@@ -4230,10 +4266,10 @@
       <c r="D16" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="32" t="s">
         <v>183</v>
       </c>
@@ -4260,10 +4296,10 @@
       <c r="D17" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="32" t="s">
         <v>188</v>
       </c>
@@ -4290,10 +4326,10 @@
       <c r="D18" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="32" t="s">
         <v>188</v>
       </c>
@@ -4320,10 +4356,10 @@
       <c r="D19" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="73" t="s">
+      <c r="E19" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="32" t="s">
         <v>188</v>
       </c>
@@ -4400,10 +4436,10 @@
       <c r="D24" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="74"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="29" t="s">
         <v>127</v>
       </c>
@@ -4430,10 +4466,10 @@
       <c r="D25" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="69"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="41">
         <v>2</v>
       </c>
@@ -4460,10 +4496,10 @@
       <c r="D26" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="41">
         <v>846</v>
       </c>
@@ -4490,10 +4526,10 @@
       <c r="D27" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="41" t="s">
         <v>188</v>
       </c>
@@ -4520,10 +4556,10 @@
       <c r="D28" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="32" t="s">
         <v>148</v>
       </c>
@@ -4550,10 +4586,10 @@
       <c r="D29" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="43" t="s">
         <v>153</v>
       </c>
@@ -4568,48 +4604,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="70">
+      <c r="A30" s="76">
         <v>6</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="76">
         <v>20</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="69"/>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="72"/>
+      <c r="G30" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="77" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="69" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="39">
@@ -4624,10 +4660,10 @@
       <c r="D32" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="69"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="41" t="s">
         <v>208</v>
       </c>
@@ -4642,50 +4678,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="70">
+      <c r="A33" s="76">
         <v>8</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="76" t="s">
         <v>146</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="67" t="s">
+      <c r="G33" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="I33" s="67" t="s">
+      <c r="I33" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="77" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="39">
@@ -4700,10 +4736,10 @@
       <c r="D35" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="69"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="41">
         <v>0</v>
       </c>
@@ -4730,10 +4766,10 @@
       <c r="D36" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="69"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="41">
         <v>0</v>
       </c>
@@ -4760,8 +4796,8 @@
       <c r="D37" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="41" t="s">
         <v>188</v>
       </c>
@@ -4777,21 +4813,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4804,33 +4852,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B263F5FD-F475-46FF-A176-3F9ABD63C69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6860598-2A45-4D65-90C6-08368A1EBE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1932,9 +1932,42 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.AuthErrorCode
-空:再次授權
+    <t>核印註記</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.StampCode
+1:帳號不符
+2:戶名不符
+3:身分證號不符
+4:印鑑不符
+9:其他
+空:未核印</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostMediaCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值:未產出前
+Y:產出後</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthApplCode
+1:申請
+2:終止
+3:郵局終止
+4:誤終止
+8:恢復授權
+9:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空:再次授權
 空白:未授權
+'CdCode.AuthErrorCode
 00:成功
 03:已終止代繳
 06:凍結警示戶
@@ -1952,39 +1985,6 @@
 19:編號非英數
 91:期限未扣款
 98:其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>核印註記</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.StampCode
-1:帳號不符
-2:戶名不符
-3:身分證號不符
-4:印鑑不符
-9:其他
-空:未核印</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostMediaCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>空值:未產出前
-Y:產出後</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.AuthApplCode
-1:申請
-2:終止
-3:郵局終止
-4:誤終止
-8:恢復授權
-9:暫停授權(DeleteDate &gt; 0時，顯示用)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2268,7 +2268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2284,10 +2284,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2299,9 +2299,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2314,9 +2311,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2329,7 +2323,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2341,9 +2335,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2443,21 +2434,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2470,9 +2446,33 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2482,29 +2482,8 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2846,28 +2825,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="4" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="3" t="s">
         <v>225</v>
       </c>
@@ -2879,97 +2858,97 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -2988,632 +2967,631 @@
       <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="46">
+      <c r="A10" s="43">
         <v>1</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="46">
         <v>8</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" ht="113.4">
-      <c r="A11" s="46">
+      <c r="A11" s="43">
         <v>2</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="43">
         <v>1</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="43">
+        <v>3</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="46">
+        <v>7</v>
+      </c>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" ht="48.6">
+      <c r="A13" s="43">
+        <v>4</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="43">
+        <v>5</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="14">
+        <v>14</v>
+      </c>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" ht="48.6">
+      <c r="A15" s="43">
+        <v>6</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="43">
+        <v>1</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="43">
+        <v>7</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="43">
+        <v>3</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43">
+        <v>8</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="46">
+        <v>10</v>
+      </c>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43">
+        <v>9</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="43">
+        <v>8</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43">
+        <v>10</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="46">
+        <v>2</v>
+      </c>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="43">
+        <v>11</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="46">
+        <v>8</v>
+      </c>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43">
+        <v>12</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="14">
+        <v>6</v>
+      </c>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43">
+        <v>13</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="46">
+        <v>8</v>
+      </c>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="43">
+        <v>14</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="46">
+        <v>8</v>
+      </c>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:8" ht="113.4">
+      <c r="A24" s="43">
+        <v>15</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="43">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32.4">
+      <c r="A25" s="43">
+        <v>16</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="43">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="324">
+      <c r="A26" s="43">
+        <v>17</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="43">
+        <v>2</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="46">
-        <v>3</v>
-      </c>
-      <c r="B12" s="44" t="s">
+      <c r="H26" s="71"/>
+    </row>
+    <row r="27" spans="1:8" ht="81">
+      <c r="A27" s="43">
         <v>18</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="48" t="s">
+      <c r="B27" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="52">
+        <v>1</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="43">
+        <v>19</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="49">
-        <v>7</v>
-      </c>
-      <c r="G12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" ht="48.6">
-      <c r="A13" s="46">
-        <v>4</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="E28" s="43">
+        <v>6</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43">
+        <v>20</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="46">
+        <v>8</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="43">
+        <v>21</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="46">
+        <v>8</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43">
+        <v>22</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="46">
+        <v>8</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" ht="226.8">
+      <c r="A32" s="43">
+        <v>23</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="43">
+        <v>2</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="43">
+        <v>24</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="43">
+        <v>100</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="43">
+        <v>25</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="43">
+        <v>10</v>
+      </c>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="43">
         <v>26</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="B35" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="46">
+        <v>8</v>
+      </c>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="43">
+        <v>27</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E36" s="43">
         <v>1</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="46">
+      <c r="G36" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="64.8">
+      <c r="A37" s="43">
+        <v>28</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="43">
+        <v>1</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="43">
+        <v>29</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="43">
         <v>5</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="44" t="s">
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="43">
+        <v>30</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="16">
-        <v>14</v>
-      </c>
-      <c r="G14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" ht="48.6">
-      <c r="A15" s="46">
+      <c r="E39" s="43">
         <v>6</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="44" t="s">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="43">
+        <v>31</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="43">
+        <v>32</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="46">
-        <v>1</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="46">
-        <v>7</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="46">
-        <v>3</v>
-      </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="46">
-        <v>8</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="49">
-        <v>10</v>
-      </c>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="59">
-        <v>9</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="59">
-        <v>8</v>
-      </c>
-      <c r="F18" s="58">
-        <v>2</v>
-      </c>
-      <c r="G18" s="50"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="59">
-        <v>10</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="49">
-        <v>2</v>
-      </c>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="59">
-        <v>11</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="49">
-        <v>8</v>
-      </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="50"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="59">
-        <v>12</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="58">
+      <c r="E41" s="43">
         <v>6</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="59">
-        <v>13</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="49">
-        <v>8</v>
-      </c>
-      <c r="G22" s="50"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="59">
-        <v>14</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="49">
-        <v>8</v>
-      </c>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="113.4">
-      <c r="A24" s="59">
-        <v>15</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="46">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32.4">
-      <c r="A25" s="59">
-        <v>16</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="46">
-        <v>1</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="324">
-      <c r="A26" s="59">
-        <v>17</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="46">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="81">
-      <c r="A27" s="59">
-        <v>18</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="55">
-        <v>1</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="59">
-        <v>19</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="46">
-        <v>6</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="59">
-        <v>20</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="49">
-        <v>8</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="59">
-        <v>21</v>
-      </c>
-      <c r="B30" s="44" t="s">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="43">
         <v>33</v>
       </c>
-      <c r="C30" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="49">
-        <v>8</v>
-      </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="59">
+      <c r="B42" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="49">
-        <v>8</v>
-      </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="226.8">
-      <c r="A32" s="59">
-        <v>23</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="46">
-        <v>2</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="59">
-        <v>24</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="46">
-        <v>100</v>
-      </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="59">
-        <v>25</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="46">
-        <v>10</v>
-      </c>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="59">
-        <v>26</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="49">
-        <v>8</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="59">
-        <v>27</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="46">
-        <v>1</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="64.8">
-      <c r="A37" s="59">
-        <v>28</v>
-      </c>
-      <c r="B37" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="46">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="59">
-        <v>29</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="46">
-        <v>5</v>
-      </c>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="59">
-        <v>30</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="46">
-        <v>6</v>
-      </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="59">
-        <v>31</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="C42" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="59">
-        <v>32</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="46">
-        <v>6</v>
-      </c>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="59">
-        <v>33</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="G42" s="20"/>
+      <c r="E42" s="46"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="B43" s="46"/>
+      <c r="B43" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3704,7 +3682,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3892,954 +3870,942 @@
       <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="48.6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>125</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>126</v>
       </c>
       <c r="F4" s="70"/>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="30">
+      <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="32">
+      <c r="F5" s="65"/>
+      <c r="G5" s="29">
         <v>1</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="29">
         <v>1</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="29">
         <v>1</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="30">
+      <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="32">
+      <c r="F6" s="65"/>
+      <c r="G6" s="29">
         <v>846</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="29">
         <v>846</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30">
+      <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="65"/>
+      <c r="G7" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="31" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.8">
-      <c r="A8" s="30">
+      <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="65"/>
+      <c r="G8" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="30">
+      <c r="A9" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="32" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="30">
+      <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="32" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="97.2">
-      <c r="A11" s="30">
+      <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="27">
         <v>26</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="29">
         <v>1</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>27</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="32" t="s">
+      <c r="F12" s="65"/>
+      <c r="G12" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="29" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="71">
+      <c r="A13" s="67">
         <v>9</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="73" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="73" t="s">
+      <c r="I13" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="63" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="71"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="67" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74" t="s">
+      <c r="F14" s="65"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="32" t="s">
+      <c r="F15" s="65"/>
+      <c r="G15" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>11</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="67" t="s">
+      <c r="E16" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="32" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="29" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="32" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>13</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="27">
         <v>74</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="32" t="s">
+      <c r="F18" s="65"/>
+      <c r="G18" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="32" t="s">
+      <c r="F19" s="65"/>
+      <c r="G19" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="29" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24" spans="1:10" ht="48.6">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="29" t="s">
+      <c r="F24" s="66"/>
+      <c r="G24" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="39">
+      <c r="A25" s="36">
         <v>1</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="36">
         <v>1</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="72"/>
-      <c r="G25" s="41">
+      <c r="F25" s="61"/>
+      <c r="G25" s="38">
         <v>2</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="38">
         <v>2</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="38">
         <v>2</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="39">
+      <c r="A26" s="36">
         <v>2</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="39">
         <v>43135</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="41">
+      <c r="F26" s="61"/>
+      <c r="G26" s="38">
         <v>846</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="38">
         <v>846</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="38" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="39">
+      <c r="A27" s="36">
         <v>3</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="39">
         <v>43228</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="41" t="s">
+      <c r="F27" s="61"/>
+      <c r="G27" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="38" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.8">
-      <c r="A28" s="39">
+      <c r="A28" s="36">
         <v>4</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="39">
         <v>43359</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="32" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="39">
+      <c r="A29" s="36">
         <v>5</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="43" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="40" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="76">
+      <c r="A30" s="62">
         <v>6</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="76">
+      <c r="C30" s="62">
         <v>20</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="77" t="s">
+      <c r="F30" s="61"/>
+      <c r="G30" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="77" t="s">
+      <c r="H30" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="I30" s="77" t="s">
+      <c r="I30" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="59" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="76"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="72" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="39">
+      <c r="A32" s="36">
         <v>7</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="41" t="s">
+      <c r="F32" s="61"/>
+      <c r="G32" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="38" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="76">
+      <c r="A33" s="62">
         <v>8</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="72" t="s">
+      <c r="F33" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="77" t="s">
+      <c r="G33" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="77" t="s">
+      <c r="H33" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="77" t="s">
+      <c r="J33" s="59" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="76"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="40" t="s">
+      <c r="A34" s="62"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="39">
+      <c r="A35" s="36">
         <v>9</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="72"/>
-      <c r="G35" s="41">
+      <c r="F35" s="61"/>
+      <c r="G35" s="38">
         <v>0</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="38">
         <v>0</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="38">
         <v>0</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="39">
+      <c r="A36" s="36">
         <v>10</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="41">
+      <c r="F36" s="61"/>
+      <c r="G36" s="38">
         <v>0</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="38">
         <v>0</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="38">
         <v>0</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="39">
+      <c r="A37" s="36">
         <v>11</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="41" t="s">
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="41" t="s">
+      <c r="J37" s="38" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4852,21 +4818,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6860598-2A45-4D65-90C6-08368A1EBE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA59360-D6C8-458A-8A5E-6F5DD38CFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="254">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1985,6 +1985,10 @@
 19:編號非英數
 91:期限未扣款
 98:其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵局的扣款人ID可能與借款人ID不同</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2434,6 +2438,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2446,44 +2453,41 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2827,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2843,10 +2847,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
         <v>225</v>
       </c>
@@ -2858,8 +2862,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="8" t="s">
         <v>107</v>
       </c>
@@ -2871,10 +2875,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="11" t="s">
         <v>51</v>
       </c>
@@ -2886,10 +2890,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -2897,10 +2901,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="16" t="s">
         <v>62</v>
       </c>
@@ -2910,10 +2914,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="41" t="s">
         <v>91</v>
       </c>
@@ -2923,10 +2927,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="16" t="s">
         <v>63</v>
       </c>
@@ -2936,10 +2940,10 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="16" t="s">
         <v>64</v>
       </c>
@@ -3119,7 +3123,9 @@
       <c r="E17" s="46">
         <v>10</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="47" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="43">
@@ -3291,7 +3297,7 @@
       <c r="G26" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="H26" s="71"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="81">
       <c r="A27" s="43">
@@ -3842,32 +3848,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="22"/>
@@ -3894,10 +3900,10 @@
       <c r="D4" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="26" t="s">
         <v>127</v>
       </c>
@@ -3924,10 +3930,10 @@
       <c r="D5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="29">
         <v>1</v>
       </c>
@@ -3954,10 +3960,10 @@
       <c r="D6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="65"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="29">
         <v>846</v>
       </c>
@@ -3984,10 +3990,10 @@
       <c r="D7" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="31" t="s">
         <v>143</v>
       </c>
@@ -4014,10 +4020,10 @@
       <c r="D8" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="65"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="29" t="s">
         <v>148</v>
       </c>
@@ -4044,10 +4050,10 @@
       <c r="D9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="32" t="s">
         <v>153</v>
       </c>
@@ -4074,10 +4080,10 @@
       <c r="D10" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="33" t="s">
         <v>159</v>
       </c>
@@ -4136,10 +4142,10 @@
       <c r="D12" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="29" t="s">
         <v>167</v>
       </c>
@@ -4154,52 +4160,52 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="67">
+      <c r="A13" s="64">
         <v>9</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="63" t="s">
+      <c r="F13" s="60"/>
+      <c r="G13" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="66" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="67"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="65" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64" t="s">
+      <c r="F14" s="60"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="27">
@@ -4214,10 +4220,10 @@
       <c r="D15" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="29" t="s">
         <v>178</v>
       </c>
@@ -4244,10 +4250,10 @@
       <c r="D16" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="29" t="s">
         <v>183</v>
       </c>
@@ -4274,10 +4280,10 @@
       <c r="D17" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="29" t="s">
         <v>188</v>
       </c>
@@ -4304,10 +4310,10 @@
       <c r="D18" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="65"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="29" t="s">
         <v>188</v>
       </c>
@@ -4334,10 +4340,10 @@
       <c r="D19" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="65"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="29" t="s">
         <v>188</v>
       </c>
@@ -4414,10 +4420,10 @@
       <c r="D24" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="26" t="s">
         <v>127</v>
       </c>
@@ -4444,10 +4450,10 @@
       <c r="D25" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="61"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="38">
         <v>2</v>
       </c>
@@ -4474,10 +4480,10 @@
       <c r="D26" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="61"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="38">
         <v>846</v>
       </c>
@@ -4504,10 +4510,10 @@
       <c r="D27" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="38" t="s">
         <v>188</v>
       </c>
@@ -4534,10 +4540,10 @@
       <c r="D28" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="29" t="s">
         <v>148</v>
       </c>
@@ -4564,10 +4570,10 @@
       <c r="D29" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="40" t="s">
         <v>153</v>
       </c>
@@ -4582,48 +4588,48 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="62">
+      <c r="A30" s="69">
         <v>6</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="69">
         <v>20</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="59" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="59" t="s">
+      <c r="J30" s="70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="62"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="61" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="36">
@@ -4638,10 +4644,10 @@
       <c r="D32" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="61"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="38" t="s">
         <v>208</v>
       </c>
@@ -4656,50 +4662,50 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="62">
+      <c r="A33" s="69">
         <v>8</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="69" t="s">
         <v>146</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="G33" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="70" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="62"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
       <c r="E34" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="36">
@@ -4714,10 +4720,10 @@
       <c r="D35" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="61"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="38">
         <v>0</v>
       </c>
@@ -4744,10 +4750,10 @@
       <c r="D36" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="61"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="38">
         <v>0</v>
       </c>
@@ -4774,8 +4780,8 @@
       <c r="D37" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="38" t="s">
         <v>188</v>
       </c>
@@ -4791,21 +4797,33 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4818,33 +4836,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA59360-D6C8-458A-8A5E-6F5DD38CFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11FDC43-1EA9-4729-9CAA-0D106F324480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="256">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -389,10 +389,6 @@
   </si>
   <si>
     <t>FileSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒體產出日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1989,6 +1985,19 @@
   </si>
   <si>
     <t>郵局的扣款人ID可能與借款人ID不同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日曆日(資料篩選日、媒體產出日)
+重置媒體檔時清0
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理同處理日期</t>
+  </si>
+  <si>
+    <t>日曆日(新增授權檔、產出媒體檔、重置媒體碼)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2453,9 +2462,33 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2464,30 +2497,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2831,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2852,10 +2861,10 @@
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2865,7 +2874,7 @@
       <c r="A2" s="57"/>
       <c r="B2" s="58"/>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2983,7 +2992,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>54</v>
@@ -2998,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>53</v>
@@ -3010,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3021,7 +3030,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>38</v>
@@ -3048,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3059,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>19</v>
@@ -3077,7 +3086,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>19</v>
@@ -3086,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3094,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>70</v>
@@ -3112,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>19</v>
@@ -3124,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3132,10 +3141,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>242</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>66</v>
@@ -3166,7 +3175,7 @@
       </c>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="32.4">
       <c r="A20" s="43">
         <v>11</v>
       </c>
@@ -3174,7 +3183,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>54</v>
@@ -3182,17 +3191,19 @@
       <c r="E20" s="46">
         <v>8</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="47" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="43">
         <v>12</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>38</v>
@@ -3200,7 +3211,9 @@
       <c r="E21" s="14">
         <v>6</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="47" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="43">
@@ -3243,10 +3256,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>246</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>247</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>19</v>
@@ -3255,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.4">
@@ -3263,10 +3276,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>19</v>
@@ -3275,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="324">
@@ -3283,10 +3296,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>19</v>
@@ -3295,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H26" s="55"/>
     </row>
@@ -3304,10 +3317,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="49" t="s">
         <v>238</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>239</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>19</v>
@@ -3317,7 +3330,7 @@
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3337,10 +3350,10 @@
         <v>6</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="48.6">
       <c r="A29" s="43">
         <v>20</v>
       </c>
@@ -3356,8 +3369,8 @@
       <c r="E29" s="46">
         <v>8</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>96</v>
+      <c r="G29" s="20" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3383,10 +3396,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>54</v>
@@ -3413,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3439,10 +3452,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>110</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>111</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>19</v>
@@ -3487,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8">
@@ -3507,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3515,10 +3528,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>231</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>19</v>
@@ -3554,7 +3567,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="45" t="s">
         <v>52</v>
@@ -3588,7 +3601,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>52</v>
@@ -3662,10 +3675,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3684,7 +3697,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3695,7 +3708,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3773,15 +3786,15 @@
         <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
@@ -3789,35 +3802,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3848,32 +3861,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="22"/>
@@ -3889,32 +3902,32 @@
     </row>
     <row r="4" spans="1:10" ht="48.6">
       <c r="A4" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3922,18 +3935,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="29">
         <v>1</v>
       </c>
@@ -3952,29 +3965,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="29">
         <v>846</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" s="29">
         <v>846</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3982,29 +3995,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="31" t="s">
-        <v>143</v>
-      </c>
       <c r="H7" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.8">
@@ -4012,29 +4025,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="F8" s="66"/>
+      <c r="G8" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="29" t="s">
-        <v>148</v>
-      </c>
       <c r="H8" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4042,29 +4055,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="F9" s="66"/>
+      <c r="G9" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="32" t="s">
+      <c r="H9" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="J9" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4072,29 +4085,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="33" t="s">
+      <c r="H10" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="97.2">
@@ -4102,25 +4115,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="27">
         <v>26</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>164</v>
-      </c>
       <c r="H11" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" s="29">
         <v>1</v>
@@ -4134,107 +4147,107 @@
         <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" s="27">
         <v>27</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="66"/>
+      <c r="G12" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="29" t="s">
+      <c r="H12" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="68">
+        <v>9</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="64">
-        <v>9</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="64" t="s">
+      <c r="D13" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="E13" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="F13" s="66"/>
+      <c r="G13" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="66" t="s">
+      <c r="H13" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="68"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="I13" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="64"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="60" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="I14" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="J14" s="67"/>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="27">
         <v>10</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="E15" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="F15" s="66"/>
+      <c r="G15" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="29" t="s">
-        <v>178</v>
-      </c>
       <c r="H15" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4">
@@ -4242,29 +4255,29 @@
         <v>11</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="F16" s="66"/>
+      <c r="G16" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="29" t="s">
-        <v>183</v>
-      </c>
       <c r="H16" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4272,29 +4285,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="E17" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="H17" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4302,29 +4315,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="27">
         <v>74</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="60"/>
-      <c r="G18" s="29" t="s">
-        <v>188</v>
-      </c>
       <c r="H18" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4332,29 +4345,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="60"/>
+      <c r="E19" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="66"/>
       <c r="G19" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4395,7 +4408,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -4409,32 +4422,32 @@
     </row>
     <row r="24" spans="1:10" ht="48.6">
       <c r="A24" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="E24" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="F24" s="67"/>
+      <c r="G24" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="26" t="s">
+      <c r="H24" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I24" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="J24" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4442,18 +4455,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" s="36">
         <v>1</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="65"/>
+        <v>131</v>
+      </c>
+      <c r="E25" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="62"/>
       <c r="G25" s="38">
         <v>2</v>
       </c>
@@ -4472,29 +4485,29 @@
         <v>2</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="39">
         <v>43135</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="65"/>
+        <v>135</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="62"/>
       <c r="G26" s="38">
         <v>846</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" s="38">
         <v>846</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4502,29 +4515,29 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" s="39">
         <v>43228</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="65"/>
+        <v>140</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="62"/>
       <c r="G27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.8">
@@ -4532,29 +4545,29 @@
         <v>4</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="39">
         <v>43359</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="65"/>
+        <v>145</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="62"/>
       <c r="G28" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4562,168 +4575,168 @@
         <v>5</v>
       </c>
       <c r="B29" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="63">
+        <v>6</v>
+      </c>
+      <c r="B30" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="69">
-        <v>6</v>
-      </c>
-      <c r="B30" s="65" t="s">
+      <c r="C30" s="63">
+        <v>20</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="69">
-        <v>20</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="65" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="70" t="s">
+      <c r="H30" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="63"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="I30" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" s="70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="69"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="36">
         <v>7</v>
       </c>
       <c r="B32" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="D32" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="65" t="s">
+      <c r="F32" s="62"/>
+      <c r="G32" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="38" t="s">
+      <c r="H32" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="63">
+        <v>8</v>
+      </c>
+      <c r="B33" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="69">
-        <v>8</v>
-      </c>
-      <c r="B33" s="65" t="s">
+      <c r="C33" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="D33" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="37" t="s">
+      <c r="F33" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="G33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33" s="60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="63"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="I33" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="J33" s="70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="69"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="36">
         <v>9</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="D35" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="38">
         <v>0</v>
       </c>
@@ -4742,18 +4755,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>218</v>
-      </c>
       <c r="D36" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="65"/>
+        <v>156</v>
+      </c>
+      <c r="E36" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="62"/>
       <c r="G36" s="38">
         <v>0</v>
       </c>
@@ -4772,58 +4785,46 @@
         <v>11</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4836,21 +4837,33 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11FDC43-1EA9-4729-9CAA-0D106F324480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22751D14-F40F-451B-97ED-0F848E698531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="259">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>第三人性別</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Index4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -419,9 +415,6 @@
   </si>
   <si>
     <t>儲金帳號</t>
-  </si>
-  <si>
-    <t>統一編號</t>
   </si>
   <si>
     <t>異動日期</t>
@@ -1873,10 +1866,6 @@
 10:妹
 11:姪子
 99:其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.Sex</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1984,10 +1973,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>郵局的扣款人ID可能與借款人ID不同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">日曆日(資料篩選日、媒體產出日)
 重置媒體檔時清0
 </t>
@@ -1999,6 +1984,36 @@
   <si>
     <t>日曆日(新增授權檔、產出媒體檔、重置媒體碼)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>統一編號
+郵局的扣款人ID可能與借款人ID不同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款人ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳戶戶名</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>身分證字號</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三人性別
+CdCode.Sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2462,41 +2477,41 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2518,9 +2533,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2558,9 +2573,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2593,26 +2608,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2645,26 +2643,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2840,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2861,10 +2842,10 @@
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2874,7 +2855,7 @@
       <c r="A2" s="57"/>
       <c r="B2" s="58"/>
       <c r="C2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2915,7 +2896,7 @@
       </c>
       <c r="B5" s="56"/>
       <c r="C5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -2928,7 +2909,7 @@
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -2941,7 +2922,7 @@
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -2950,11 +2931,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="5"/>
@@ -2989,10 +2970,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="45" t="s">
         <v>54</v>
@@ -3007,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>53</v>
@@ -3019,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3030,7 +3011,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>38</v>
@@ -3045,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>26</v>
@@ -3057,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3068,7 +3049,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>19</v>
@@ -3086,7 +3067,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>19</v>
@@ -3095,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3103,28 +3084,28 @@
         <v>7</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="43">
         <v>3</v>
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="32.4">
       <c r="A17" s="43">
         <v>8</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>19</v>
@@ -3141,13 +3122,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="43">
         <v>8</v>
@@ -3183,7 +3164,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>54</v>
@@ -3192,7 +3173,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3200,10 +3181,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>38</v>
@@ -3212,7 +3193,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3220,10 +3201,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>54</v>
@@ -3256,10 +3237,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>19</v>
@@ -3268,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.4">
@@ -3276,10 +3257,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>19</v>
@@ -3288,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="324">
@@ -3296,10 +3277,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>19</v>
@@ -3308,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H26" s="55"/>
     </row>
@@ -3317,10 +3298,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>19</v>
@@ -3330,7 +3311,7 @@
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="54" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3338,10 +3319,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>38</v>
@@ -3350,7 +3331,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48.6">
@@ -3358,7 +3339,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>35</v>
@@ -3370,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3396,10 +3377,10 @@
         <v>22</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D31" s="45" t="s">
         <v>54</v>
@@ -3426,7 +3407,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3437,7 +3418,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="D33" s="41" t="s">
         <v>20</v>
@@ -3445,17 +3426,19 @@
       <c r="E33" s="43">
         <v>100</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="42" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="43">
         <v>25</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>19</v>
@@ -3463,7 +3446,9 @@
       <c r="E34" s="43">
         <v>10</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="42" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="43">
@@ -3473,7 +3458,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="D35" s="45" t="s">
         <v>54</v>
@@ -3481,9 +3466,11 @@
       <c r="E35" s="46">
         <v>8</v>
       </c>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32.4">
       <c r="A36" s="43">
         <v>27</v>
       </c>
@@ -3491,7 +3478,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>19</v>
@@ -3499,8 +3486,8 @@
       <c r="E36" s="43">
         <v>1</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>234</v>
+      <c r="G36" s="20" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8">
@@ -3508,19 +3495,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E37" s="43">
         <v>1</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3528,10 +3515,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>19</v>
@@ -3546,10 +3533,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>68</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>69</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>19</v>
@@ -3567,7 +3554,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="45" t="s">
         <v>52</v>
@@ -3601,7 +3588,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="45" t="s">
         <v>52</v>
@@ -3675,10 +3662,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3697,7 +3684,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3708,7 +3695,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3716,7 +3703,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>55</v>
@@ -3724,10 +3711,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
@@ -3735,66 +3722,66 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
@@ -3802,35 +3789,35 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3861,32 +3848,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="A1" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="22"/>
@@ -3902,32 +3889,32 @@
     </row>
     <row r="4" spans="1:10" ht="48.6">
       <c r="A4" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="H4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3935,18 +3922,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="66"/>
+        <v>129</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="60"/>
       <c r="G5" s="29">
         <v>1</v>
       </c>
@@ -3965,29 +3952,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="E6" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="29">
         <v>846</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" s="29">
         <v>846</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3995,29 +3982,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="E7" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="H7" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.8">
@@ -4025,29 +4012,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="E8" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="29" t="s">
-        <v>147</v>
-      </c>
       <c r="H8" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4055,29 +4042,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="E9" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="H9" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>153</v>
-      </c>
       <c r="J9" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4085,29 +4072,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="E10" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="H10" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>159</v>
-      </c>
       <c r="J10" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="97.2">
@@ -4115,25 +4102,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="27">
         <v>26</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>163</v>
-      </c>
       <c r="H11" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I11" s="29">
         <v>1</v>
@@ -4147,107 +4134,107 @@
         <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="27">
         <v>27</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="64">
+        <v>9</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="29" t="s">
+      <c r="D13" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="68">
-        <v>9</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="68" t="s">
+      <c r="E13" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="F13" s="60"/>
+      <c r="G13" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="H13" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="64" t="s">
+      <c r="F14" s="60"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="I14" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="65"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="31.8">
       <c r="A15" s="27">
         <v>10</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="E15" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="F15" s="60"/>
+      <c r="G15" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="29" t="s">
-        <v>177</v>
-      </c>
       <c r="H15" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4">
@@ -4255,29 +4242,29 @@
         <v>11</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="E16" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="F16" s="60"/>
+      <c r="G16" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="29" t="s">
-        <v>182</v>
-      </c>
       <c r="H16" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4285,29 +4272,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="E17" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="E17" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="29" t="s">
-        <v>187</v>
-      </c>
       <c r="H17" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4315,29 +4302,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="27">
         <v>74</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="66"/>
+        <v>129</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="60"/>
       <c r="G18" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4345,29 +4332,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="66"/>
+        <v>188</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="60"/>
       <c r="G19" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4408,7 +4395,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -4422,32 +4409,32 @@
     </row>
     <row r="24" spans="1:10" ht="48.6">
       <c r="A24" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="H24" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="26" t="s">
+      <c r="I24" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="J24" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4455,18 +4442,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C25" s="36">
         <v>1</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>193</v>
-      </c>
-      <c r="F25" s="62"/>
+        <v>129</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="65"/>
       <c r="G25" s="38">
         <v>2</v>
       </c>
@@ -4485,29 +4472,29 @@
         <v>2</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C26" s="39">
         <v>43135</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="62"/>
+        <v>133</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="65"/>
       <c r="G26" s="38">
         <v>846</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I26" s="38">
         <v>846</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4515,29 +4502,29 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C27" s="39">
         <v>43228</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="62"/>
+        <v>138</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="65"/>
       <c r="G27" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.8">
@@ -4545,29 +4532,29 @@
         <v>4</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C28" s="39">
         <v>43359</v>
       </c>
       <c r="D28" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="65"/>
+      <c r="G28" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="29" t="s">
-        <v>147</v>
-      </c>
       <c r="H28" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4575,168 +4562,168 @@
         <v>5</v>
       </c>
       <c r="B29" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="65"/>
+      <c r="G29" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="69">
+        <v>6</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="69">
+        <v>20</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="63">
-        <v>6</v>
-      </c>
-      <c r="B30" s="62" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="63">
-        <v>20</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="62" t="s">
+      <c r="H30" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="69"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="J30" s="60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="63"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="36">
         <v>7</v>
       </c>
       <c r="B32" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="F32" s="65"/>
+      <c r="G32" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="62" t="s">
+      <c r="H32" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="69">
+        <v>8</v>
+      </c>
+      <c r="B33" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="38" t="s">
+      <c r="C33" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="H32" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="J32" s="38" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="63">
-        <v>8</v>
-      </c>
-      <c r="B33" s="62" t="s">
+      <c r="D33" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="F33" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="37" t="s">
+      <c r="G33" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="I33" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" s="70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="69"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="J33" s="60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="63"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="36">
         <v>9</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="38">
         <v>0</v>
       </c>
@@ -4755,18 +4742,18 @@
         <v>10</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="62"/>
+        <v>154</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="65"/>
       <c r="G36" s="38">
         <v>0</v>
       </c>
@@ -4785,46 +4772,58 @@
         <v>11</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
+        <v>217</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
@@ -4837,33 +4836,21 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22751D14-F40F-451B-97ED-0F848E698531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA4994B-9849-436C-83D2-DB46F5F8D121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,6 @@
   <si>
     <t>AuthCreateDate,AuthApplCode,CustNo,PostDepCode,RepayAcct,AuthCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>申請代號，狀態碼</t>
@@ -1918,16 +1914,6 @@
   </si>
   <si>
     <t>核印註記</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.StampCode
-1:帳號不符
-2:戶名不符
-3:身分證號不符
-4:印鑑不符
-9:其他
-空:未核印</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2014,6 +2000,19 @@
   <si>
     <t>性別</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.StampCode
+1:帳號不符
+2:戶名不符
+3:身分證號不符
+4:印鑑不符
+9:其他
+空:正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -2821,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2842,10 +2841,10 @@
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -2855,7 +2854,7 @@
       <c r="A2" s="57"/>
       <c r="B2" s="58"/>
       <c r="C2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2896,7 +2895,7 @@
       </c>
       <c r="B5" s="56"/>
       <c r="C5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -2909,7 +2908,7 @@
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -2922,7 +2921,7 @@
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -2931,11 +2930,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="5"/>
@@ -2970,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="46">
         <v>8</v>
@@ -2988,10 +2987,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>19</v>
@@ -3000,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3011,7 +3010,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>38</v>
@@ -3026,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>26</v>
@@ -3038,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3049,7 +3048,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>19</v>
@@ -3067,7 +3066,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>19</v>
@@ -3076,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3084,13 +3083,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="43">
         <v>3</v>
@@ -3102,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>19</v>
@@ -3114,7 +3113,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3122,13 +3121,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>238</v>
-      </c>
       <c r="D18" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="43">
         <v>8</v>
@@ -3164,16 +3163,16 @@
         <v>30</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="46">
         <v>8</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3181,10 +3180,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>38</v>
@@ -3193,7 +3192,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3201,13 +3200,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="46">
         <v>8</v>
@@ -3225,7 +3224,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="46">
         <v>8</v>
@@ -3237,10 +3236,10 @@
         <v>15</v>
       </c>
       <c r="B24" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>242</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>243</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>19</v>
@@ -3249,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="32.4">
@@ -3257,10 +3256,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>19</v>
@@ -3269,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="324">
@@ -3277,10 +3276,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>19</v>
@@ -3289,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H26" s="55"/>
     </row>
@@ -3298,10 +3297,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="49" t="s">
         <v>234</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>235</v>
       </c>
       <c r="D27" s="51" t="s">
         <v>19</v>
@@ -3311,7 +3310,7 @@
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3319,10 +3318,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>38</v>
@@ -3331,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="48.6">
@@ -3339,19 +3338,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="46">
         <v>8</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3365,7 +3364,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="46">
         <v>8</v>
@@ -3377,13 +3376,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="46">
         <v>8</v>
@@ -3407,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3418,7 +3417,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D33" s="41" t="s">
         <v>20</v>
@@ -3427,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3435,10 +3434,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>19</v>
@@ -3447,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3458,16 +3457,16 @@
         <v>24</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="46">
         <v>8</v>
       </c>
       <c r="G35" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="32.4">
@@ -3478,7 +3477,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>19</v>
@@ -3487,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="64.8">
@@ -3495,19 +3494,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="43">
         <v>1</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3515,10 +3514,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>227</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>228</v>
       </c>
       <c r="D38" s="41" t="s">
         <v>19</v>
@@ -3533,10 +3532,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>68</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>19</v>
@@ -3554,10 +3553,10 @@
         <v>21</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="E40" s="46"/>
       <c r="G40" s="18"/>
@@ -3588,10 +3587,10 @@
         <v>22</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="E42" s="46"/>
       <c r="G42" s="18"/>
@@ -3649,7 +3648,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3662,10 +3661,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3684,10 +3683,10 @@
         <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.8">
       <c r="A7" s="17" t="s">
         <v>49</v>
       </c>
@@ -3695,129 +3694,129 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3849,7 +3848,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -3863,7 +3862,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -3889,32 +3888,32 @@
     </row>
     <row r="4" spans="1:10" ht="48.6">
       <c r="A4" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="63" t="s">
         <v>122</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>123</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3922,16 +3921,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>129</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>130</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="29">
@@ -3952,29 +3951,29 @@
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="60" t="s">
         <v>133</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>134</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="29">
         <v>846</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I6" s="29">
         <v>846</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3982,29 +3981,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="60" t="s">
         <v>138</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>139</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.8">
@@ -4012,29 +4011,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="60" t="s">
         <v>143</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>144</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4042,29 +4041,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="60" t="s">
         <v>148</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>149</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="J9" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4072,29 +4071,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="60" t="s">
         <v>154</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>155</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="J10" s="32" t="s">
         <v>156</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="97.2">
@@ -4102,25 +4101,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="27">
         <v>26</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>161</v>
-      </c>
       <c r="H11" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" s="29">
         <v>1</v>
@@ -4134,29 +4133,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="27">
         <v>27</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4164,29 +4163,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="E13" s="60" t="s">
         <v>166</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>167</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J13" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4195,15 +4194,15 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J14" s="67"/>
     </row>
@@ -4212,29 +4211,29 @@
         <v>10</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="E15" s="60" t="s">
         <v>173</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>174</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4">
@@ -4242,29 +4241,29 @@
         <v>11</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="D16" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="60" t="s">
         <v>178</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>179</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4272,29 +4271,29 @@
         <v>12</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="D17" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="E17" s="60" t="s">
         <v>183</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>184</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4302,29 +4301,29 @@
         <v>13</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="27">
         <v>74</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4332,29 +4331,29 @@
         <v>14</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>188</v>
-      </c>
       <c r="E19" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4395,7 +4394,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -4409,32 +4408,32 @@
     </row>
     <row r="24" spans="1:10" ht="48.6">
       <c r="A24" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="E24" s="68" t="s">
         <v>122</v>
-      </c>
-      <c r="E24" s="68" t="s">
-        <v>123</v>
       </c>
       <c r="F24" s="68"/>
       <c r="G24" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="I24" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="J24" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4442,16 +4441,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="36">
         <v>1</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" s="65"/>
       <c r="G25" s="38">
@@ -4472,29 +4471,29 @@
         <v>2</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="39">
         <v>43135</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="65"/>
       <c r="G26" s="38">
         <v>846</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I26" s="38">
         <v>846</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4502,29 +4501,29 @@
         <v>3</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="39">
         <v>43228</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" s="65"/>
       <c r="G27" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="31.8">
@@ -4532,29 +4531,29 @@
         <v>4</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="39">
         <v>43359</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="65"/>
       <c r="G28" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4562,29 +4561,29 @@
         <v>5</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>148</v>
-      </c>
       <c r="E29" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" s="65"/>
       <c r="G29" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="J29" s="40" t="s">
         <v>150</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4592,29 +4591,29 @@
         <v>6</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" s="69">
         <v>20</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" s="65"/>
       <c r="G30" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H30" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I30" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4623,7 +4622,7 @@
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
       <c r="E31" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F31" s="65"/>
       <c r="G31" s="71"/>
@@ -4636,29 +4635,29 @@
         <v>7</v>
       </c>
       <c r="B32" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="D32" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="65" t="s">
         <v>203</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="65" t="s">
-        <v>204</v>
       </c>
       <c r="F32" s="65"/>
       <c r="G32" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4666,31 +4665,31 @@
         <v>8</v>
       </c>
       <c r="B33" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="D33" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="37" t="s">
+      <c r="F33" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="F33" s="65" t="s">
-        <v>209</v>
-      </c>
       <c r="G33" s="70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H33" s="70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I33" s="70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J33" s="70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4699,7 +4698,7 @@
       <c r="C34" s="69"/>
       <c r="D34" s="69"/>
       <c r="E34" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F34" s="65"/>
       <c r="G34" s="71"/>
@@ -4712,16 +4711,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="D35" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>212</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>213</v>
       </c>
       <c r="F35" s="65"/>
       <c r="G35" s="38">
@@ -4742,16 +4741,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>215</v>
-      </c>
       <c r="D36" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" s="65"/>
       <c r="G36" s="38">
@@ -4772,27 +4771,27 @@
         <v>11</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>216</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>217</v>
       </c>
       <c r="E37" s="65"/>
       <c r="F37" s="65"/>
       <c r="G37" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I37" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J37" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
